--- a/5708745_AE1222II_ACD_2024.xlsx
+++ b/5708745_AE1222II_ACD_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace\ADSEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D0FD0-8CBA-422D-95B8-1EFF3EA42312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DF9EA-DF08-475E-94F2-055B5F449DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FB2885BD-E7E2-425E-BEBA-F889588011D3}</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{FB2885BD-E7E2-425E-BEBA-F889588011D3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fix the data for this plane
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8DA7865C-AFD5-423E-9A2A-7709B3362DC8}</author>
+  </authors>
+  <commentList>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{8DA7865C-AFD5-423E-9A2A-7709B3362DC8}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Change this shit later
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="669">
   <si>
     <t>AE1222-II</t>
   </si>
@@ -3105,9 +3143,6 @@
     <t>Bombardier</t>
   </si>
   <si>
-    <t>CRJ900</t>
-  </si>
-  <si>
     <t>24.9</t>
   </si>
   <si>
@@ -3175,13 +3210,85 @@
   </si>
   <si>
     <t>Quite the opposite, the engine placement had an effect on the tail configuration, as a normal low tail or even a cruciform tail would not be possible here due to the engine exhaust.</t>
+  </si>
+  <si>
+    <t>288.15</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>6.83</t>
+  </si>
+  <si>
+    <t>The fuselage will be divded into two levels, one above for the passengers, and one below for the cargo. This ìs done so that the passengers have an horizontal platform to stand on and move in the plane. It is also how the reference aircrafts approach this question.</t>
+  </si>
+  <si>
+    <t>The cargo will be stored in bulk, as there is not enough cargo and not enough space either to store it in unit load devices</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>In my case, I have decided that the best option for the aspect ratio would be to simply take the average of the aspect ratios in my references planes, which I rounded up from 9.46 to 9.5. This is a mid to high aspect ratio in relation to other planes in the industry.</t>
+  </si>
+  <si>
+    <t>A relatively high aspect ratio will considerably reduce the lift-induced drag on the airplane.</t>
+  </si>
+  <si>
+    <t>Generally, the higher the aspect ratio, the higher the wing weight, therefore the wing will be heavier than average.</t>
+  </si>
+  <si>
+    <t>This aspect ratio will make the wing thinner, therefore there will not be a lot of space for big fuel tanks or other systems.</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>CRJ700</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>0.00325</t>
+  </si>
+  <si>
+    <t>0.017875</t>
+  </si>
+  <si>
+    <t>0.0075</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>18.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3457,8 +3564,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3468,6 +3581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3715,7 +3834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -4013,14 +4132,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4028,6 +4144,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4101,19 +4220,28 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10205,6 +10333,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alexandru Prohnitchi" id="{846998E1-5CB6-4747-BB62-E08E14160245}" userId="b78f17d2f97596f4" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -10500,12 +10634,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C9" dT="2024-03-25T21:18:29.54" personId="{846998E1-5CB6-4747-BB62-E08E14160245}" id="{FB2885BD-E7E2-425E-BEBA-F889588011D3}">
+    <text xml:space="preserve">Fix the data for this plane
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D18" dT="2024-03-25T21:23:59.34" personId="{846998E1-5CB6-4747-BB62-E08E14160245}" id="{8DA7865C-AFD5-423E-9A2A-7709B3362DC8}">
+    <text xml:space="preserve">Change this shit later
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E64C7C-F791-4C4D-88BF-F5D31A4833FB}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -11418,9 +11570,9 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <f>'Drag Polar'!D31</f>
-        <v>0</v>
+      <c r="D18" s="2" t="e">
+        <f>'Drag Polar'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
@@ -11650,10 +11802,10 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="B33" s="108"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="129"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
@@ -11764,10 +11916,10 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="107" t="s">
         <v>474</v>
       </c>
-      <c r="B41" s="108"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="129"/>
       <c r="D41" s="109"/>
       <c r="E41" s="109"/>
@@ -12917,60 +13069,60 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="131" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="132"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="131" t="s">
         <v>360</v>
       </c>
-      <c r="B19" s="132"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="131" t="s">
         <v>361</v>
       </c>
-      <c r="B20" s="132"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="131" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="132"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="132"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="131" t="s">
         <v>364</v>
       </c>
-      <c r="B23" s="132"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -13043,21 +13195,21 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="133" t="s">
+      <c r="A32" s="132" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -13075,21 +13227,21 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="131" t="s">
         <v>369</v>
       </c>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -13115,11 +13267,11 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="133" t="s">
         <v>379</v>
       </c>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -13133,21 +13285,21 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="131" t="s">
+      <c r="A40" s="133" t="s">
         <v>375</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="133" t="s">
         <v>377</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -13207,6 +13359,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DTEFbU7u0Ho++EM/YNUXu9ZQOI7PW5JkWzAhk8J8CoLhfFCcrpuDZmwmPfd1G9kx4JNdO0VfFEYrkO1CgZ7kBQ==" saltValue="KDY4vzktrA+2TnT6bpvCvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="17">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A26:C26"/>
@@ -13218,12 +13376,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14071,8 +14223,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14299,7 +14451,9 @@
       <c r="A14" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
@@ -14914,12 +15068,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1045DB85-79DA-4576-9DAF-777C193F1787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1045DB85-79DA-4576-9DAF-777C193F1787}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15177,8 +15331,12 @@
       <c r="K8" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M8" s="1">
+        <v>400</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -15189,11 +15347,11 @@
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="136" t="s">
         <v>621</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>622</v>
+      <c r="C9" s="136" t="s">
+        <v>661</v>
       </c>
       <c r="D9" s="1">
         <v>90</v>
@@ -15211,16 +15369,20 @@
         <v>21845</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M9" s="1">
+        <v>389</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -15232,10 +15394,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="D10" s="1">
         <v>70</v>
@@ -15253,16 +15415,20 @@
         <v>23300</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="K10" s="1">
         <v>8.98</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>425</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -15274,10 +15440,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="D11" s="1">
         <v>72</v>
@@ -15298,13 +15464,17 @@
         <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K11" s="1">
         <v>12</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M11" s="1">
+        <v>397</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -15316,7 +15486,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C12" s="1">
         <v>2000</v>
@@ -15337,16 +15507,20 @@
         <v>14500</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M12" s="1">
+        <v>362</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -15590,6 +15764,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15598,7 +15773,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:G26"/>
     </sheetView>
   </sheetViews>
@@ -15668,7 +15843,7 @@
         <v>98</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103"/>
@@ -15775,7 +15950,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="103"/>
@@ -15807,7 +15982,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103"/>
@@ -15823,7 +15998,7 @@
         <v>138</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C15" s="103"/>
       <c r="D15" s="103"/>
@@ -15839,7 +16014,7 @@
         <v>503</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C16" s="103"/>
       <c r="D16" s="103"/>
@@ -15915,7 +16090,7 @@
         <v>118</v>
       </c>
       <c r="B21" s="103" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
@@ -15931,7 +16106,7 @@
         <v>502</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C22" s="103"/>
       <c r="D22" s="103"/>
@@ -15975,7 +16150,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C25" s="103"/>
       <c r="D25" s="103"/>
@@ -15991,7 +16166,7 @@
         <v>501</v>
       </c>
       <c r="B26" s="103" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C26" s="103"/>
       <c r="D26" s="103"/>
@@ -16041,17 +16216,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CqlXtYj3cC4mjgw79I0vhy8ap8pqtHnJgv+J3L98TaIAT9IitOrh1GiklkyY+zZLvFIY43V+suIsNtfMy04RcA==" saltValue="e7C+SzTRC78xq0FmMozdcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -16116,8 +16291,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16128,14 +16303,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16170,17 +16345,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -16228,7 +16403,9 @@
       <c r="B7" s="39"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="44"/>
+      <c r="E7" s="44">
+        <v>75</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
@@ -16244,7 +16421,9 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>5550</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
@@ -16260,7 +16439,9 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
@@ -16276,7 +16457,9 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>370</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
@@ -16292,7 +16475,9 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
@@ -16308,7 +16493,9 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>740</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
@@ -16324,7 +16511,9 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
@@ -16340,7 +16529,9 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1456</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
@@ -16370,7 +16561,9 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>646</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>423</v>
       </c>
@@ -16386,7 +16579,9 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>423</v>
       </c>
@@ -16402,7 +16597,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>170</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>423</v>
       </c>
@@ -16432,7 +16629,9 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>649</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
@@ -16448,7 +16647,9 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>647</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>22</v>
       </c>
@@ -16464,7 +16665,9 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>648</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>22</v>
       </c>
@@ -16482,7 +16685,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="91">
         <f>E14</f>
-        <v>0</v>
+        <v>1456</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>21</v>
@@ -16499,7 +16702,9 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="92"/>
+      <c r="E24" s="92" t="s">
+        <v>650</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
@@ -16509,38 +16714,42 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="104" t="s">
+        <v>651</v>
+      </c>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="104" t="s">
+        <v>652</v>
+      </c>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="105" t="s">
         <v>536</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="33"/>
@@ -16553,10 +16762,10 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -16743,7 +16952,9 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>24</v>
       </c>
@@ -16759,7 +16970,9 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="16" t="s">
+        <v>653</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>24</v>
       </c>
@@ -16775,7 +16988,9 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>24</v>
       </c>
@@ -16817,12 +17032,12 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="105" t="s">
         <v>522</v>
       </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="106"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="108"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2" t="s">
         <v>24</v>
@@ -16833,12 +17048,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="105" t="s">
         <v>523</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="106"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="108"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
         <v>24</v>
@@ -16849,12 +17064,12 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="106"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="108"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
         <v>24</v>
@@ -17017,11 +17232,11 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -17264,11 +17479,11 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="105"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -17350,6 +17565,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vz9K8Y7VSXxpvbbm+Mqf5vAnJs8MZ2iIB9gC33elWJNP+/ia6c4k+LmVzH9nfTQK22fcuJJ+hloCVH/t+137kg==" saltValue="If1oKsGAr9pIGpOoimVdLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="E74:I74"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -17361,11 +17581,6 @@
     <mergeCell ref="E58:I58"/>
     <mergeCell ref="E66:I66"/>
     <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17374,12 +17589,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCD77A6-37C4-4BC9-83A6-EEE85170BB56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCD77A6-37C4-4BC9-83A6-EEE85170BB56}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F9"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17391,15 +17606,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="113" t="s">
@@ -17449,7 +17664,9 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
@@ -17468,47 +17685,55 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="104" t="s">
+        <v>656</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="104" t="s">
+        <v>657</v>
+      </c>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="104" t="s">
+        <v>658</v>
+      </c>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="104" t="s">
+        <v>659</v>
+      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -17556,12 +17781,14 @@
       <c r="G15" s="114"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
@@ -17585,7 +17812,9 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="137">
+        <v>395</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>478</v>
       </c>
@@ -17598,7 +17827,9 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>663</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
@@ -17611,7 +17842,9 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>664</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
@@ -17644,7 +17877,9 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
@@ -17657,7 +17892,9 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>666</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
@@ -17665,12 +17902,14 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
@@ -17678,12 +17917,14 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
@@ -17716,7 +17957,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
@@ -17729,7 +17970,9 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
@@ -17742,7 +17985,9 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="16">
+        <v>10</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -17755,7 +18000,9 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="138">
+        <v>0.38</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
@@ -17918,6 +18165,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0VL3Vkm2dIJXSrgm39vuhF2Tvxksg+Dtw293ASpKtYsR6irr6kiwwLr/ccbrVSOGU2/KyOJPXHz9BOYwnMIQWg==" saltValue="Zt961gDI/nfNEe2LU3Uh3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -17926,14 +18179,9 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17942,8 +18190,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18649,8 +18897,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:CA191"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25571,9 +25819,9 @@
       <c r="A11" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="str">
         <f>'Drag Polar'!D6</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -25976,15 +26224,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003B35A4F73E5FB46B06133D49831EB02" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="963094af03acbe8bbdbdb5b78098b6c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57737f91-50a7-4bcd-be1e-7a40d09a4546" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97d626fed2f10e20cb731189a2ebb807" ns2:_="">
     <xsd:import namespace="57737f91-50a7-4bcd-be1e-7a40d09a4546"/>
@@ -26128,15 +26367,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4C5F6B-9CE6-4980-93EC-E038CC0A98DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15DCABB9-91A6-47D0-BC99-7AE8850BD32A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26152,4 +26392,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4C5F6B-9CE6-4980-93EC-E038CC0A98DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/5708745_AE1222II_ACD_2024.xlsx
+++ b/5708745_AE1222II_ACD_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace\ADSEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DF9EA-DF08-475E-94F2-055B5F449DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F38822-57A4-437B-B2CC-317380E16AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="684">
   <si>
     <t>AE1222-II</t>
   </si>
@@ -3143,15 +3143,6 @@
     <t>Bombardier</t>
   </si>
   <si>
-    <t>24.9</t>
-  </si>
-  <si>
-    <t>71.1</t>
-  </si>
-  <si>
-    <t>8.72</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAe </t>
   </si>
   <si>
@@ -3282,6 +3273,60 @@
   </si>
   <si>
     <t>18.05</t>
+  </si>
+  <si>
+    <t>39.3%</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>68.6</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>Civilian Jet</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>9.85</t>
   </si>
 </sst>
 </file>
@@ -4413,8 +4458,14 @@
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1675</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,6 +4903,159 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4909,6 +5113,159 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5119,126 +5476,6 @@
                 <c:pt idx="50">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5248,6 +5485,123 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="12">
+                  <c:v>1.0202067654452471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94644742426159068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8835756194187866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82941384364866411</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78232896650009565</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74107212351045371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70467197565325079</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67236167632862809</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64352774825669845</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61767356697279163</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59439280336944966</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5733497942709469</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55426482036417857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53690291742613627</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52106526957581323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50658251513679631</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49330948695787408</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.48112104094317465</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.46990871887627578</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45957805714932576</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45004640010545444</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.441241110955291</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.43309809841409641</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.42556059591538781</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4185781442889579</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.41210573941002732</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40610311443010938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40053413243389535</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39536627019760751</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.39057017749490969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.38611929935911699</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.38198955105300336</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.37815903736090889</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37460780930856574</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37131765261512045</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36827190315128178</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36545528546519923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.36285377108068362</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.36045445379964097</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5443,126 +5797,6 @@
                 <c:pt idx="50">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5572,6 +5806,153 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="2">
+                  <c:v>0.82130749650016799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71890112033637821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65785477560116268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61619471313205509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58544253257900647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56154195175876576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54227624825008391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52631818373410844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51281813557352274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50120364805007234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49107306016818908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48213511995835856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47417279739589963</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46702061188719318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46054988780058137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45465885714175019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44926583216672267</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44430438252407684</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43971985656602758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43546682539636822</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.43150717367818914</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42780865228134035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42434376628950321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42108891024046508</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41802368815729218</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41513037344545933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.41239347587938291</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.40979939145645689</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40733611700587236</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.40499301585912939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.40276062412504199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.40063048950770863</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39859503639800459</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.39664745232271514</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.39478159186705419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.39299189497925086</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39127331718022385</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38962126968090782</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3880315677867614</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38650038626730454</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.38502422060609748</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.38359985323689455</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38222432402503614</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.38089490437735168</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37960907446496084</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.37836450312609932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.37715903008409452</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37599065017176075</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.37485749930003359</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5766,126 +6147,6 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6090,126 +6351,6 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6437,126 +6578,6 @@
                 <c:pt idx="50">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6768,126 +6789,6 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7103,126 +7004,6 @@
                 <c:pt idx="50">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7434,126 +7215,6 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5200</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6900</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7300</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10657,7 +10318,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -14223,8 +13884,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A23" zoomScale="145" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14452,7 +14113,7 @@
         <v>223</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>45</v>
@@ -15072,8 +14733,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15332,12 +14993,14 @@
         <v>620</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M8" s="1">
         <v>400</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
@@ -15351,10 +15014,10 @@
         <v>621</v>
       </c>
       <c r="C9" s="136" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D9" s="1">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1">
         <v>10247</v>
@@ -15363,27 +15026,29 @@
         <v>2876</v>
       </c>
       <c r="G9" s="1">
-        <v>38329</v>
+        <v>33000</v>
       </c>
       <c r="H9" s="1">
-        <v>21845</v>
+        <v>19730</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="M9" s="1">
         <v>389</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="2"/>
@@ -15394,10 +15059,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D10" s="1">
         <v>70</v>
@@ -15415,10 +15080,10 @@
         <v>23300</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K10" s="1">
         <v>8.98</v>
@@ -15429,7 +15094,9 @@
       <c r="M10" s="1">
         <v>425</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
@@ -15440,10 +15107,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D11" s="1">
         <v>72</v>
@@ -15464,18 +15131,20 @@
         <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K11" s="1">
         <v>12</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M11" s="1">
         <v>397</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="2"/>
@@ -15486,7 +15155,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C12" s="1">
         <v>2000</v>
@@ -15507,21 +15176,23 @@
         <v>14500</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M12" s="1">
         <v>362</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="2"/>
@@ -15773,7 +15444,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26:G26"/>
     </sheetView>
   </sheetViews>
@@ -15843,7 +15514,7 @@
         <v>98</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103"/>
@@ -15950,7 +15621,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="103"/>
@@ -15982,7 +15653,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103"/>
@@ -15998,7 +15669,7 @@
         <v>138</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C15" s="103"/>
       <c r="D15" s="103"/>
@@ -16014,7 +15685,7 @@
         <v>503</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C16" s="103"/>
       <c r="D16" s="103"/>
@@ -16090,7 +15761,7 @@
         <v>118</v>
       </c>
       <c r="B21" s="103" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
@@ -16106,7 +15777,7 @@
         <v>502</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C22" s="103"/>
       <c r="D22" s="103"/>
@@ -16150,7 +15821,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C25" s="103"/>
       <c r="D25" s="103"/>
@@ -16166,7 +15837,7 @@
         <v>501</v>
       </c>
       <c r="B26" s="103" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C26" s="103"/>
       <c r="D26" s="103"/>
@@ -16291,7 +15962,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -16562,7 +16233,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>423</v>
@@ -16630,7 +16301,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
@@ -16648,7 +16319,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>22</v>
@@ -16666,7 +16337,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="26" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>22</v>
@@ -16703,7 +16374,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="92" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
@@ -16721,7 +16392,7 @@
       <c r="C25" s="105"/>
       <c r="D25" s="108"/>
       <c r="E25" s="104" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F25" s="104"/>
       <c r="G25" s="104"/>
@@ -16737,7 +16408,7 @@
       <c r="C26" s="105"/>
       <c r="D26" s="108"/>
       <c r="E26" s="104" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F26" s="104"/>
       <c r="G26" s="104"/>
@@ -16953,7 +16624,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>24</v>
@@ -16971,7 +16642,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="16" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>24</v>
@@ -16989,7 +16660,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>24</v>
@@ -17593,8 +17264,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17665,7 +17336,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -17690,7 +17361,7 @@
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="104" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D8" s="104"/>
       <c r="E8" s="104"/>
@@ -17703,7 +17374,7 @@
       </c>
       <c r="B9" s="108"/>
       <c r="C9" s="104" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
@@ -17716,7 +17387,7 @@
       </c>
       <c r="B10" s="108"/>
       <c r="C10" s="104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D10" s="104"/>
       <c r="E10" s="104"/>
@@ -17729,7 +17400,7 @@
       </c>
       <c r="B11" s="108"/>
       <c r="C11" s="104" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D11" s="104"/>
       <c r="E11" s="104"/>
@@ -17787,7 +17458,7 @@
       <c r="B16" s="105"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -17828,7 +17499,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -17843,7 +17514,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -17878,7 +17549,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -17893,7 +17564,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -17908,7 +17579,7 @@
       <c r="B25" s="105"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -17923,7 +17594,7 @@
       <c r="B26" s="105"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -18000,8 +17671,8 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="138">
-        <v>0.38</v>
+      <c r="D32" s="138" t="s">
+        <v>666</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -18035,7 +17706,9 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>479</v>
       </c>
@@ -18190,8 +17863,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18292,7 +17965,9 @@
       <c r="A5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -18446,7 +18121,9 @@
       <c r="A12" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
@@ -18512,7 +18189,9 @@
       <c r="A15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>29630</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
@@ -18536,7 +18215,9 @@
       <c r="A16" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>18370</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -18560,7 +18241,9 @@
       <c r="A17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>3140</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -18584,7 +18267,9 @@
       <c r="A18" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
@@ -18757,7 +18442,9 @@
       <c r="A25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>1675</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
@@ -18781,7 +18468,9 @@
       <c r="A26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>3520</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
@@ -18897,8 +18586,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:CA191"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="E98" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19294,7 +18983,9 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
@@ -19330,7 +19021,9 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
@@ -19366,7 +19059,9 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
@@ -19402,7 +19097,9 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
@@ -19438,7 +19135,9 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
@@ -19474,7 +19173,9 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
@@ -19612,7 +19313,9 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>65</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
@@ -19648,7 +19351,9 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
@@ -19684,7 +19389,9 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
@@ -19720,7 +19427,9 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
@@ -19926,7 +19635,9 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>1676</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
       </c>
@@ -19962,7 +19673,9 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
       </c>
@@ -19998,7 +19711,9 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>45</v>
       </c>
@@ -20034,7 +19749,9 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
@@ -20070,7 +19787,9 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="96">
+        <v>1225</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>423</v>
       </c>
@@ -20242,7 +19961,9 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1">
+        <v>9300</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
@@ -20312,7 +20033,9 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
@@ -20384,7 +20107,9 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>212</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>46</v>
       </c>
@@ -20522,7 +20247,9 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1">
+        <v>3.8</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>46</v>
       </c>
@@ -20558,7 +20285,9 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1">
+        <v>7400</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>46</v>
       </c>
@@ -20594,7 +20323,9 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1">
+        <v>0.95</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
@@ -20630,7 +20361,9 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>48.1</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>45</v>
       </c>
@@ -20700,7 +20433,9 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1">
+        <v>240.05</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>45</v>
       </c>
@@ -20736,7 +20471,9 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1">
+        <v>38800</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>481</v>
       </c>
@@ -20772,7 +20509,9 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1">
+        <v>0.56308000000000002</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>423</v>
       </c>
@@ -22528,10 +22267,14 @@
       <c r="B100" s="15">
         <v>0</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="C100" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D100" s="15">
+        <v>4100</v>
+      </c>
       <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
@@ -22562,10 +22305,14 @@
       <c r="B101" s="15">
         <v>100</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="C101" s="16">
+        <v>4300</v>
+      </c>
+      <c r="D101" s="16">
+        <v>4100</v>
+      </c>
       <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
@@ -22596,10 +22343,17 @@
       <c r="B102" s="15">
         <v>200</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="C102" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D102" s="15">
+        <v>4100</v>
+      </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
+      <c r="F102" s="15">
+        <f>4.75*(SQRT(2.6226/(0.95*B102))+0.05542)</f>
+        <v>0.82130749650016799</v>
+      </c>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
@@ -22630,10 +22384,17 @@
       <c r="B103" s="15">
         <v>300</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="C103" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D103" s="15">
+        <v>4100</v>
+      </c>
       <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
+      <c r="F103" s="15">
+        <f t="shared" ref="F103:F150" si="0">4.75*(SQRT(2.6226/(0.95*B103))+0.05542)</f>
+        <v>0.71890112033637821</v>
+      </c>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
@@ -22664,10 +22425,17 @@
       <c r="B104" s="15">
         <v>400</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D104" s="15">
+        <v>4100</v>
+      </c>
       <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
+      <c r="F104" s="15">
+        <f t="shared" si="0"/>
+        <v>0.65785477560116268</v>
+      </c>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
@@ -22698,10 +22466,17 @@
       <c r="B105" s="15">
         <v>500</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="C105" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D105" s="15">
+        <v>4100</v>
+      </c>
       <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
+      <c r="F105" s="15">
+        <f t="shared" si="0"/>
+        <v>0.61619471313205509</v>
+      </c>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
@@ -22732,10 +22507,17 @@
       <c r="B106" s="15">
         <v>600</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="C106" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D106" s="15">
+        <v>4100</v>
+      </c>
       <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
+      <c r="F106" s="15">
+        <f t="shared" si="0"/>
+        <v>0.58544253257900647</v>
+      </c>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
@@ -22766,10 +22548,17 @@
       <c r="B107" s="15">
         <v>700</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="C107" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D107" s="15">
+        <v>4100</v>
+      </c>
       <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
+      <c r="F107" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56154195175876576</v>
+      </c>
       <c r="G107" s="15"/>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
@@ -22800,10 +22589,17 @@
       <c r="B108" s="15">
         <v>800</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="C108" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D108" s="15">
+        <v>4100</v>
+      </c>
       <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
+      <c r="F108" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54227624825008391</v>
+      </c>
       <c r="G108" s="15"/>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
@@ -22834,10 +22630,17 @@
       <c r="B109" s="15">
         <v>900</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="C109" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D109" s="15">
+        <v>4100</v>
+      </c>
       <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
+      <c r="F109" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52631818373410844</v>
+      </c>
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
@@ -22868,10 +22671,17 @@
       <c r="B110" s="15">
         <v>1000</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="C110" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D110" s="15">
+        <v>4100</v>
+      </c>
       <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
+      <c r="F110" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51281813557352274</v>
+      </c>
       <c r="G110" s="15"/>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
@@ -22902,10 +22712,17 @@
       <c r="B111" s="15">
         <v>1100</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="C111" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D111" s="15">
+        <v>4100</v>
+      </c>
       <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
+      <c r="F111" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50120364805007234</v>
+      </c>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -22936,10 +22753,20 @@
       <c r="B112" s="15">
         <v>1200</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
+      <c r="C112" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D112" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E112" s="15">
+        <f t="shared" ref="E102:E165" si="1">6.26*(180.427/(0.95*B112)+(0.95*B112)/242397)</f>
+        <v>1.0202067654452471</v>
+      </c>
+      <c r="F112" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49107306016818908</v>
+      </c>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
@@ -22970,10 +22797,20 @@
       <c r="B113" s="15">
         <v>1300</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
+      <c r="C113" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D113" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E113" s="15">
+        <f t="shared" si="1"/>
+        <v>0.94644742426159068</v>
+      </c>
+      <c r="F113" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48213511995835856</v>
+      </c>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
@@ -23004,10 +22841,20 @@
       <c r="B114" s="15">
         <v>1400</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
+      <c r="C114" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D114" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E114" s="15">
+        <f t="shared" si="1"/>
+        <v>0.8835756194187866</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" si="0"/>
+        <v>0.47417279739589963</v>
+      </c>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -23038,10 +22885,20 @@
       <c r="B115" s="15">
         <v>1500</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
+      <c r="C115" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D115" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E115" s="15">
+        <f t="shared" si="1"/>
+        <v>0.82941384364866411</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="0"/>
+        <v>0.46702061188719318</v>
+      </c>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
@@ -23072,10 +22929,20 @@
       <c r="B116" s="15">
         <v>1600</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
+      <c r="C116" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D116" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E116" s="15">
+        <f t="shared" si="1"/>
+        <v>0.78232896650009565</v>
+      </c>
+      <c r="F116" s="15">
+        <f t="shared" si="0"/>
+        <v>0.46054988780058137</v>
+      </c>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
@@ -23106,10 +22973,20 @@
       <c r="B117" s="15">
         <v>1700</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
+      <c r="C117" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D117" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E117" s="15">
+        <f t="shared" si="1"/>
+        <v>0.74107212351045371</v>
+      </c>
+      <c r="F117" s="15">
+        <f t="shared" si="0"/>
+        <v>0.45465885714175019</v>
+      </c>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
@@ -23140,10 +23017,20 @@
       <c r="B118" s="15">
         <v>1800</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
+      <c r="C118" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D118" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E118" s="15">
+        <f t="shared" si="1"/>
+        <v>0.70467197565325079</v>
+      </c>
+      <c r="F118" s="15">
+        <f t="shared" si="0"/>
+        <v>0.44926583216672267</v>
+      </c>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
@@ -23174,10 +23061,20 @@
       <c r="B119" s="15">
         <v>1900</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
+      <c r="C119" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D119" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E119" s="15">
+        <f t="shared" si="1"/>
+        <v>0.67236167632862809</v>
+      </c>
+      <c r="F119" s="15">
+        <f t="shared" si="0"/>
+        <v>0.44430438252407684</v>
+      </c>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
@@ -23208,10 +23105,20 @@
       <c r="B120" s="15">
         <v>2000</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
+      <c r="C120" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D120" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E120" s="15">
+        <f t="shared" si="1"/>
+        <v>0.64352774825669845</v>
+      </c>
+      <c r="F120" s="15">
+        <f t="shared" si="0"/>
+        <v>0.43971985656602758</v>
+      </c>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
@@ -23242,10 +23149,20 @@
       <c r="B121" s="15">
         <v>2100</v>
       </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
+      <c r="C121" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D121" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E121" s="15">
+        <f t="shared" si="1"/>
+        <v>0.61767356697279163</v>
+      </c>
+      <c r="F121" s="15">
+        <f t="shared" si="0"/>
+        <v>0.43546682539636822</v>
+      </c>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
@@ -23276,10 +23193,20 @@
       <c r="B122" s="15">
         <v>2200</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
+      <c r="C122" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D122" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E122" s="15">
+        <f t="shared" si="1"/>
+        <v>0.59439280336944966</v>
+      </c>
+      <c r="F122" s="15">
+        <f t="shared" si="0"/>
+        <v>0.43150717367818914</v>
+      </c>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -23310,10 +23237,20 @@
       <c r="B123" s="15">
         <v>2300</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
+      <c r="C123" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D123" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E123" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5733497942709469</v>
+      </c>
+      <c r="F123" s="15">
+        <f t="shared" si="0"/>
+        <v>0.42780865228134035</v>
+      </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
@@ -23344,10 +23281,20 @@
       <c r="B124" s="15">
         <v>2400</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
+      <c r="C124" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D124" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E124" s="15">
+        <f t="shared" si="1"/>
+        <v>0.55426482036417857</v>
+      </c>
+      <c r="F124" s="15">
+        <f t="shared" si="0"/>
+        <v>0.42434376628950321</v>
+      </c>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
@@ -23378,10 +23325,20 @@
       <c r="B125" s="15">
         <v>2500</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
+      <c r="C125" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D125" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E125" s="15">
+        <f t="shared" si="1"/>
+        <v>0.53690291742613627</v>
+      </c>
+      <c r="F125" s="15">
+        <f t="shared" si="0"/>
+        <v>0.42108891024046508</v>
+      </c>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
@@ -23412,10 +23369,20 @@
       <c r="B126" s="15">
         <v>2600</v>
       </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
+      <c r="C126" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D126" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E126" s="15">
+        <f t="shared" si="1"/>
+        <v>0.52106526957581323</v>
+      </c>
+      <c r="F126" s="15">
+        <f t="shared" si="0"/>
+        <v>0.41802368815729218</v>
+      </c>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
@@ -23446,10 +23413,20 @@
       <c r="B127" s="15">
         <v>2700</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
+      <c r="C127" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D127" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E127" s="15">
+        <f t="shared" si="1"/>
+        <v>0.50658251513679631</v>
+      </c>
+      <c r="F127" s="15">
+        <f t="shared" si="0"/>
+        <v>0.41513037344545933</v>
+      </c>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
@@ -23480,10 +23457,20 @@
       <c r="B128" s="15">
         <v>2800</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
+      <c r="C128" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D128" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E128" s="15">
+        <f t="shared" si="1"/>
+        <v>0.49330948695787408</v>
+      </c>
+      <c r="F128" s="15">
+        <f t="shared" si="0"/>
+        <v>0.41239347587938291</v>
+      </c>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
@@ -23514,10 +23501,20 @@
       <c r="B129" s="15">
         <v>2900</v>
       </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
+      <c r="C129" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D129" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E129" s="15">
+        <f t="shared" si="1"/>
+        <v>0.48112104094317465</v>
+      </c>
+      <c r="F129" s="15">
+        <f t="shared" si="0"/>
+        <v>0.40979939145645689</v>
+      </c>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
@@ -23548,10 +23545,20 @@
       <c r="B130" s="15">
         <v>3000</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
+      <c r="C130" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D130" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E130" s="15">
+        <f t="shared" si="1"/>
+        <v>0.46990871887627578</v>
+      </c>
+      <c r="F130" s="15">
+        <f t="shared" si="0"/>
+        <v>0.40733611700587236</v>
+      </c>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
@@ -23582,10 +23589,20 @@
       <c r="B131" s="15">
         <v>3100</v>
       </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
+      <c r="C131" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D131" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E131" s="15">
+        <f t="shared" si="1"/>
+        <v>0.45957805714932576</v>
+      </c>
+      <c r="F131" s="15">
+        <f t="shared" si="0"/>
+        <v>0.40499301585912939</v>
+      </c>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
@@ -23616,10 +23633,20 @@
       <c r="B132" s="15">
         <v>3200</v>
       </c>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
+      <c r="C132" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D132" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E132" s="15">
+        <f t="shared" si="1"/>
+        <v>0.45004640010545444</v>
+      </c>
+      <c r="F132" s="15">
+        <f t="shared" si="0"/>
+        <v>0.40276062412504199</v>
+      </c>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
@@ -23650,10 +23677,20 @@
       <c r="B133" s="15">
         <v>3300</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
+      <c r="C133" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D133" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E133" s="15">
+        <f t="shared" si="1"/>
+        <v>0.441241110955291</v>
+      </c>
+      <c r="F133" s="15">
+        <f t="shared" si="0"/>
+        <v>0.40063048950770863</v>
+      </c>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
@@ -23684,10 +23721,20 @@
       <c r="B134" s="15">
         <v>3400</v>
       </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
+      <c r="C134" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D134" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E134" s="15">
+        <f t="shared" si="1"/>
+        <v>0.43309809841409641</v>
+      </c>
+      <c r="F134" s="15">
+        <f t="shared" si="0"/>
+        <v>0.39859503639800459</v>
+      </c>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
@@ -23718,10 +23765,20 @@
       <c r="B135" s="15">
         <v>3500</v>
       </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
+      <c r="C135" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D135" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E135" s="15">
+        <f t="shared" si="1"/>
+        <v>0.42556059591538781</v>
+      </c>
+      <c r="F135" s="15">
+        <f t="shared" si="0"/>
+        <v>0.39664745232271514</v>
+      </c>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
@@ -23752,10 +23809,20 @@
       <c r="B136" s="15">
         <v>3600</v>
       </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
+      <c r="C136" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D136" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E136" s="15">
+        <f t="shared" si="1"/>
+        <v>0.4185781442889579</v>
+      </c>
+      <c r="F136" s="15">
+        <f t="shared" si="0"/>
+        <v>0.39478159186705419</v>
+      </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -23786,10 +23853,20 @@
       <c r="B137" s="15">
         <v>3700</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
+      <c r="C137" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D137" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E137" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41210573941002732</v>
+      </c>
+      <c r="F137" s="15">
+        <f t="shared" si="0"/>
+        <v>0.39299189497925086</v>
+      </c>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -23820,10 +23897,20 @@
       <c r="B138" s="15">
         <v>3800</v>
       </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
+      <c r="C138" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D138" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E138" s="15">
+        <f t="shared" si="1"/>
+        <v>0.40610311443010938</v>
+      </c>
+      <c r="F138" s="15">
+        <f t="shared" si="0"/>
+        <v>0.39127331718022385</v>
+      </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
@@ -23854,10 +23941,20 @@
       <c r="B139" s="15">
         <v>3900</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
+      <c r="C139" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D139" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E139" s="15">
+        <f t="shared" si="1"/>
+        <v>0.40053413243389535</v>
+      </c>
+      <c r="F139" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38962126968090782</v>
+      </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
@@ -23888,10 +23985,20 @@
       <c r="B140" s="15">
         <v>4000</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
+      <c r="C140" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D140" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E140" s="15">
+        <f t="shared" si="1"/>
+        <v>0.39536627019760751</v>
+      </c>
+      <c r="F140" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3880315677867614</v>
+      </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -23922,10 +24029,20 @@
       <c r="B141" s="15">
         <v>4100</v>
       </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
+      <c r="C141" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D141" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E141" s="15">
+        <f t="shared" si="1"/>
+        <v>0.39057017749490969</v>
+      </c>
+      <c r="F141" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38650038626730454</v>
+      </c>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
@@ -23956,10 +24073,20 @@
       <c r="B142" s="15">
         <v>4200</v>
       </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
+      <c r="C142" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D142" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E142" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38611929935911699</v>
+      </c>
+      <c r="F142" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38502422060609748</v>
+      </c>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
@@ -23990,10 +24117,20 @@
       <c r="B143" s="15">
         <v>4300</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
+      <c r="C143" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D143" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E143" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38198955105300336</v>
+      </c>
+      <c r="F143" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38359985323689455</v>
+      </c>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
@@ -24024,10 +24161,20 @@
       <c r="B144" s="15">
         <v>4400</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
+      <c r="C144" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D144" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E144" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37815903736090889</v>
+      </c>
+      <c r="F144" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38222432402503614</v>
+      </c>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
@@ -24058,10 +24205,20 @@
       <c r="B145" s="15">
         <v>4500</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
+      <c r="C145" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D145" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E145" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37460780930856574</v>
+      </c>
+      <c r="F145" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38089490437735168</v>
+      </c>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
@@ -24092,10 +24249,20 @@
       <c r="B146" s="15">
         <v>4600</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
+      <c r="C146" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D146" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E146" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37131765261512045</v>
+      </c>
+      <c r="F146" s="15">
+        <f t="shared" si="0"/>
+        <v>0.37960907446496084</v>
+      </c>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
@@ -24126,10 +24293,20 @@
       <c r="B147" s="15">
         <v>4700</v>
       </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
+      <c r="C147" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D147" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E147" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36827190315128178</v>
+      </c>
+      <c r="F147" s="15">
+        <f t="shared" si="0"/>
+        <v>0.37836450312609932</v>
+      </c>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
@@ -24160,10 +24337,20 @@
       <c r="B148" s="15">
         <v>4800</v>
       </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
+      <c r="C148" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D148" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E148" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36545528546519923</v>
+      </c>
+      <c r="F148" s="15">
+        <f t="shared" si="0"/>
+        <v>0.37715903008409452</v>
+      </c>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
@@ -24194,10 +24381,20 @@
       <c r="B149" s="15">
         <v>4900</v>
       </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
+      <c r="C149" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D149" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E149" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36285377108068362</v>
+      </c>
+      <c r="F149" s="15">
+        <f t="shared" si="0"/>
+        <v>0.37599065017176075</v>
+      </c>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
@@ -24228,10 +24425,20 @@
       <c r="B150" s="15">
         <v>5000</v>
       </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
+      <c r="C150" s="15">
+        <v>4300</v>
+      </c>
+      <c r="D150" s="15">
+        <v>4100</v>
+      </c>
+      <c r="E150" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36045445379964097</v>
+      </c>
+      <c r="F150" s="15">
+        <f t="shared" si="0"/>
+        <v>0.37485749930003359</v>
+      </c>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
@@ -24259,9 +24466,7 @@
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="15"/>
-      <c r="B151" s="15">
-        <v>5100</v>
-      </c>
+      <c r="B151" s="15"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
@@ -24293,9 +24498,7 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" s="15"/>
-      <c r="B152" s="15">
-        <v>5200</v>
-      </c>
+      <c r="B152" s="15"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -24327,9 +24530,7 @@
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
-      <c r="B153" s="15">
-        <v>5300</v>
-      </c>
+      <c r="B153" s="15"/>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -24361,9 +24562,7 @@
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" s="15"/>
-      <c r="B154" s="15">
-        <v>5400</v>
-      </c>
+      <c r="B154" s="15"/>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -24395,9 +24594,7 @@
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" s="15"/>
-      <c r="B155" s="15">
-        <v>5500</v>
-      </c>
+      <c r="B155" s="15"/>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -24429,9 +24626,7 @@
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" s="15"/>
-      <c r="B156" s="15">
-        <v>5600</v>
-      </c>
+      <c r="B156" s="15"/>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -24463,9 +24658,7 @@
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" s="15"/>
-      <c r="B157" s="15">
-        <v>5700</v>
-      </c>
+      <c r="B157" s="15"/>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -24497,9 +24690,7 @@
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" s="15"/>
-      <c r="B158" s="15">
-        <v>5800</v>
-      </c>
+      <c r="B158" s="15"/>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -24531,9 +24722,7 @@
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" s="15"/>
-      <c r="B159" s="15">
-        <v>5900</v>
-      </c>
+      <c r="B159" s="15"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -24565,9 +24754,7 @@
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" s="15"/>
-      <c r="B160" s="15">
-        <v>6000</v>
-      </c>
+      <c r="B160" s="15"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -24599,9 +24786,7 @@
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
-      <c r="B161" s="15">
-        <v>6100</v>
-      </c>
+      <c r="B161" s="15"/>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -24633,9 +24818,7 @@
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" s="15"/>
-      <c r="B162" s="15">
-        <v>6200</v>
-      </c>
+      <c r="B162" s="15"/>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
@@ -24667,9 +24850,7 @@
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
-      <c r="B163" s="15">
-        <v>6300</v>
-      </c>
+      <c r="B163" s="15"/>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -24701,9 +24882,7 @@
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" s="15"/>
-      <c r="B164" s="15">
-        <v>6400</v>
-      </c>
+      <c r="B164" s="15"/>
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
@@ -24735,9 +24914,7 @@
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" s="15"/>
-      <c r="B165" s="15">
-        <v>6500</v>
-      </c>
+      <c r="B165" s="15"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
@@ -24769,9 +24946,7 @@
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" s="15"/>
-      <c r="B166" s="15">
-        <v>6600</v>
-      </c>
+      <c r="B166" s="15"/>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -24803,9 +24978,7 @@
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" s="15"/>
-      <c r="B167" s="15">
-        <v>6700</v>
-      </c>
+      <c r="B167" s="15"/>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -24837,9 +25010,7 @@
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" s="15"/>
-      <c r="B168" s="15">
-        <v>6800</v>
-      </c>
+      <c r="B168" s="15"/>
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -24871,9 +25042,7 @@
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" s="15"/>
-      <c r="B169" s="15">
-        <v>6900</v>
-      </c>
+      <c r="B169" s="15"/>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -24905,9 +25074,7 @@
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" s="15"/>
-      <c r="B170" s="15">
-        <v>7000</v>
-      </c>
+      <c r="B170" s="15"/>
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -24939,9 +25106,7 @@
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" s="15"/>
-      <c r="B171" s="15">
-        <v>7100</v>
-      </c>
+      <c r="B171" s="15"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -24973,9 +25138,7 @@
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" s="15"/>
-      <c r="B172" s="15">
-        <v>7200</v>
-      </c>
+      <c r="B172" s="15"/>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -25007,9 +25170,7 @@
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" s="15"/>
-      <c r="B173" s="15">
-        <v>7300</v>
-      </c>
+      <c r="B173" s="15"/>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -25041,9 +25202,7 @@
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" s="15"/>
-      <c r="B174" s="15">
-        <v>7400</v>
-      </c>
+      <c r="B174" s="15"/>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -25075,9 +25234,7 @@
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
-      <c r="B175" s="15">
-        <v>7500</v>
-      </c>
+      <c r="B175" s="15"/>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -25109,9 +25266,7 @@
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
-      <c r="B176" s="15">
-        <v>7600</v>
-      </c>
+      <c r="B176" s="15"/>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -25143,9 +25298,7 @@
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" s="15"/>
-      <c r="B177" s="15">
-        <v>7700</v>
-      </c>
+      <c r="B177" s="15"/>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -25177,9 +25330,7 @@
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" s="15"/>
-      <c r="B178" s="15">
-        <v>7800</v>
-      </c>
+      <c r="B178" s="15"/>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -25211,9 +25362,7 @@
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" s="15"/>
-      <c r="B179" s="15">
-        <v>7900</v>
-      </c>
+      <c r="B179" s="15"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -25245,9 +25394,7 @@
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" s="15"/>
-      <c r="B180" s="15">
-        <v>8000</v>
-      </c>
+      <c r="B180" s="15"/>
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -25279,9 +25426,7 @@
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" s="15"/>
-      <c r="B181" s="15">
-        <v>8100</v>
-      </c>
+      <c r="B181" s="15"/>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -25313,9 +25458,7 @@
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" s="15"/>
-      <c r="B182" s="15">
-        <v>8200</v>
-      </c>
+      <c r="B182" s="15"/>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -25347,9 +25490,7 @@
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" s="15"/>
-      <c r="B183" s="15">
-        <v>8300</v>
-      </c>
+      <c r="B183" s="15"/>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -25381,9 +25522,7 @@
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" s="15"/>
-      <c r="B184" s="15">
-        <v>8400</v>
-      </c>
+      <c r="B184" s="15"/>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -25415,9 +25554,7 @@
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" s="15"/>
-      <c r="B185" s="15">
-        <v>8500</v>
-      </c>
+      <c r="B185" s="15"/>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -25449,9 +25586,7 @@
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" s="15"/>
-      <c r="B186" s="15">
-        <v>8600</v>
-      </c>
+      <c r="B186" s="15"/>
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -25483,9 +25618,7 @@
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" s="15"/>
-      <c r="B187" s="15">
-        <v>8700</v>
-      </c>
+      <c r="B187" s="15"/>
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -25517,9 +25650,7 @@
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" s="15"/>
-      <c r="B188" s="15">
-        <v>8800</v>
-      </c>
+      <c r="B188" s="15"/>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -25551,9 +25682,7 @@
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" s="15"/>
-      <c r="B189" s="15">
-        <v>8900</v>
-      </c>
+      <c r="B189" s="15"/>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -25585,9 +25714,7 @@
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" s="15"/>
-      <c r="B190" s="15">
-        <v>9000</v>
-      </c>
+      <c r="B190" s="15"/>
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>

--- a/5708745_AE1222II_ACD_2024.xlsx
+++ b/5708745_AE1222II_ACD_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace\ADSEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F38822-57A4-437B-B2CC-317380E16AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40E326-42C7-4FCC-A12C-052059B01C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <sheet name="Matching Diagram" sheetId="3" r:id="rId8"/>
     <sheet name="Wing" sheetId="11" r:id="rId9"/>
     <sheet name="Propulsion System" sheetId="14" r:id="rId10"/>
-    <sheet name="CG and Loading Diagram" sheetId="15" r:id="rId11"/>
-    <sheet name="Landing Gear" sheetId="13" r:id="rId12"/>
-    <sheet name="Tail" sheetId="12" r:id="rId13"/>
-    <sheet name="Design Log Book" sheetId="10" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
+    <sheet name="CG and Loading Diagram" sheetId="15" r:id="rId12"/>
+    <sheet name="Landing Gear" sheetId="13" r:id="rId13"/>
+    <sheet name="Tail" sheetId="12" r:id="rId14"/>
+    <sheet name="Design Log Book" sheetId="10" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="692">
   <si>
     <t>AE1222-II</t>
   </si>
@@ -3233,9 +3234,6 @@
     <t>2.48</t>
   </si>
   <si>
-    <t>9.5</t>
-  </si>
-  <si>
     <t>In my case, I have decided that the best option for the aspect ratio would be to simply take the average of the aspect ratios in my references planes, which I rounded up from 9.46 to 9.5. This is a mid to high aspect ratio in relation to other planes in the industry.</t>
   </si>
   <si>
@@ -3266,15 +3264,6 @@
     <t>0.0075</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>18.05</t>
-  </si>
-  <si>
     <t>39.3%</t>
   </si>
   <si>
@@ -3327,13 +3316,49 @@
   </si>
   <si>
     <t>9.85</t>
+  </si>
+  <si>
+    <t>To determine the quarter chord sweep angle, I looked at the cruise number, and as it was greater than 0,66, used the method presented in the book to find the angle based on the arccos calculations. At the same time, this angle is similar to some of the reference plane's.</t>
+  </si>
+  <si>
+    <t>Using the linear regression curve and its formula from the book, by taking into account the quarter chord sweep angle, I arrived at a taper ratio of 0,35 for the wing, which falls into the realm of common sense and is also similar to some reference planes.</t>
+  </si>
+  <si>
+    <t>These choices were made using the reference aircrafts as the basis, and also using common sense when it comes to dimensioning and scaling.</t>
+  </si>
+  <si>
+    <t>This angle allows for an increase in clearance between the ground and the fuselage when the airplane has an increased pitch attitude</t>
+  </si>
+  <si>
+    <t>These are some common values used in the industry, including in the reference aircraft</t>
+  </si>
+  <si>
+    <t>The number of passengers is 74, however some aicraft may decide to add at most 2 additional rows of seats, bringing the total number to 82 passengers, over the lower limit of 80, therefore needing at least 2 type 1 emergency exists and 1 type 3 emergency exists</t>
+  </si>
+  <si>
+    <t>No, as there exists a range of possible values of t/c to choose from</t>
+  </si>
+  <si>
+    <t>Personally, I would</t>
+  </si>
+  <si>
+    <t>For the plane, 3.5 degrees just seems to small to comply with ground clearance values.</t>
+  </si>
+  <si>
+    <t>Lower wetted area, less mass for the nacelle</t>
+  </si>
+  <si>
+    <t>02.04.2023</t>
+  </si>
+  <si>
+    <t>Changed location of aft type I emergency exit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3608,12 +3633,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4155,6 +4174,15 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4177,11 +4205,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4189,9 +4220,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4265,28 +4293,19 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5485,122 +5504,134 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="8">
+                  <c:v>1.0848322416634151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96763404069444137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87422899089505823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79812805103719564</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0202067654452471</c:v>
+                  <c:v>0.73500519363547356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94644742426159068</c:v>
+                  <c:v>0.68186547658462848</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8835756194187866</c:v>
+                  <c:v>0.63656965552375833</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.82941384364866411</c:v>
+                  <c:v>0.59754895125486818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.78232896650009565</c:v>
+                  <c:v>0.56362677937946182</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.74107212351045371</c:v>
+                  <c:v>0.53390339888692429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.70467197565325079</c:v>
+                  <c:v>0.50767901121344428</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.67236167632862809</c:v>
+                  <c:v>0.48440114380864419</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64352774825669845</c:v>
+                  <c:v>0.46362781863222202</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.61767356697279163</c:v>
+                  <c:v>0.44500124393726675</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59439280336944966</c:v>
+                  <c:v>0.42822868102176004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5733497942709469</c:v>
+                  <c:v>0.41306830226229563</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55426482036417857</c:v>
+                  <c:v>0.39931858463936826</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53690291742613627</c:v>
+                  <c:v>0.38681024881659337</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.52106526957581323</c:v>
+                  <c:v>0.37540005843241497</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50658251513679631</c:v>
+                  <c:v>0.36496599732698903</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.49330948695787408</c:v>
+                  <c:v>0.35540348022044921</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48112104094317465</c:v>
+                  <c:v>0.34662234738877279</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.46990871887627578</c:v>
+                  <c:v>0.33854446040447345</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45957805714932576</c:v>
+                  <c:v>0.33110176321780499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45004640010545444</c:v>
+                  <c:v>0.32423470678523952</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.441241110955291</c:v>
+                  <c:v>0.31789096012913137</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.43309809841409641</c:v>
+                  <c:v>0.31202434885744007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.42556059591538781</c:v>
+                  <c:v>0.30659397565150143</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4185781442889579</c:v>
+                  <c:v>0.30156348733916932</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.41210573941002732</c:v>
+                  <c:v>0.29690046082096216</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.40610311443010938</c:v>
+                  <c:v>0.29257588595523853</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.40053413243389535</c:v>
+                  <c:v>0.2885637279994997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.39536627019760751</c:v>
+                  <c:v>0.28484055568549677</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.39057017749490969</c:v>
+                  <c:v>0.28138522372237101</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.38611929935911699</c:v>
+                  <c:v>0.27817860065648842</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.38198955105300336</c:v>
+                  <c:v>0.27520333470432029</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.37815903736090889</c:v>
+                  <c:v>0.27244365151720434</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.37460780930856574</c:v>
+                  <c:v>0.26988517891080377</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.37131765261512045</c:v>
+                  <c:v>0.26751479445594145</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36827190315128178</c:v>
+                  <c:v>0.26532049252592343</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.36545528546519923</c:v>
+                  <c:v>0.26329126796294705</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.36285377108068362</c:v>
+                  <c:v>0.26141701398943817</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.36045445379964097</c:v>
+                  <c:v>0.25968843237002892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5806,152 +5837,155 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="1">
+                  <c:v>0.64922984610833734</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82130749650016799</c:v>
+                  <c:v>0.52300734063352672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71890112033637821</c:v>
+                  <c:v>0.46739400306085693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65785477560116268</c:v>
+                  <c:v>0.43442168832722078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61619471313205509</c:v>
+                  <c:v>0.4120258048571207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58544253257900647</c:v>
+                  <c:v>0.39555631734653679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56154195175876576</c:v>
+                  <c:v>0.38279236641074721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54227624825008391</c:v>
+                  <c:v>0.3725228582082139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52631818373410844</c:v>
+                  <c:v>0.36402441647902578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51281813557352274</c:v>
+                  <c:v>0.35683519674865383</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.50120364805007234</c:v>
+                  <c:v>0.35064489270486793</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49107306016818908</c:v>
+                  <c:v>0.34523642167170626</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48213511995835856</c:v>
+                  <c:v>0.34045285644348128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47417279739589963</c:v>
+                  <c:v>0.33617763232869791</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46702061188719318</c:v>
+                  <c:v>0.33232216205709758</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46054988780058137</c:v>
+                  <c:v>0.32881779240296793</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45465885714175019</c:v>
+                  <c:v>0.32561041270062951</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44926583216672267</c:v>
+                  <c:v>0.3226567411905743</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44430438252407684</c:v>
+                  <c:v>0.31992170571758521</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.43971985656602758</c:v>
+                  <c:v>0.31737655742978094</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.43546682539636822</c:v>
+                  <c:v>0.31499748707102726</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.43150717367818914</c:v>
+                  <c:v>0.31276459312043131</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42780865228134035</c:v>
+                  <c:v>0.3106611008659384</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42434376628950321</c:v>
+                  <c:v>0.3086727634577261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.42108891024046508</c:v>
+                  <c:v>0.30678739694497104</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.41802368815729218</c:v>
+                  <c:v>0.30499451532296057</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.41513037344545933</c:v>
+                  <c:v>0.30328504117397415</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41239347587938291</c:v>
+                  <c:v>0.30165107410712877</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.40979939145645689</c:v>
+                  <c:v>0.30008570386124622</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.40733611700587236</c:v>
+                  <c:v>0.29858285825886649</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.40499301585912939</c:v>
+                  <c:v>0.29713717860210964</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.40276062412504199</c:v>
+                  <c:v>0.29574391685854196</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.40063048950770863</c:v>
+                  <c:v>0.29439885028508095</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.39859503639800459</c:v>
+                  <c:v>0.29309821010942255</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.39664745232271514</c:v>
+                  <c:v>0.29183862162150342</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.39478159186705419</c:v>
+                  <c:v>0.29061705358562367</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.39299189497925086</c:v>
+                  <c:v>0.28943077531243078</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.39127331718022385</c:v>
+                  <c:v>0.28827732006165835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.38962126968090782</c:v>
+                  <c:v>0.28715445370516413</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3880315677867614</c:v>
+                  <c:v>0.28606014778294075</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.38650038626730454</c:v>
+                  <c:v>0.28499255624532904</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.38502422060609748</c:v>
+                  <c:v>0.28394999530241005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.38359985323689455</c:v>
+                  <c:v>0.2829309259037745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.38222432402503614</c:v>
+                  <c:v>0.28193393845413245</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.38089490437735168</c:v>
+                  <c:v>0.28095773943680097</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.37960907446496084</c:v>
+                  <c:v>0.28000113967124368</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.37836450312609932</c:v>
+                  <c:v>0.27906304397507375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.37715903008409452</c:v>
+                  <c:v>0.27814244203727151</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.37599065017176075</c:v>
+                  <c:v>0.27723840033931318</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.37485749930003359</c:v>
+                  <c:v>0.2763500549857234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6157,6 +6191,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="1">
+                  <c:v>0.15565625430108562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15960755999611931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16216273705695911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16410773062795486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16570079324974074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16706144875332815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16825559578224528</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16932374006761619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1702927096171632</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1711812712952504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17200311321011508</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17276855433429267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17348558479967732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17416052999520845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17479849154402169</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17540364993983618</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17597947814445455</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17652889602250943</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17705438436791687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17755807066036419</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1780417946210571</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17850715906013415</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17895556983360425</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17938826761408172</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17980635342356391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18021080935355832</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1806025155299624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1809822641172496</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18135077096604083</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18170868536831883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18205659828065321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18239504929776937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18272453259956134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18304550204926062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18335837558538379</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18366353902272339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.18396134935615102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18425213764398832</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18453621153413977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18481385748530405</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18508534272680041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.18535091699341757</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.18561081406587429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18586525314270411</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.18611444006544214</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.18635856841572329</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18659782050019147</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18683236823684457</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.18706237395453787</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18728799111576031</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6361,6 +6545,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="1">
+                  <c:v>4.4075832784648959E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.979817870821078E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.416505529398493E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7817700597381547E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1011079224803255E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3877511484559432E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6496118634871926E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8918654881734209E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1181155119801165E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3309893981284804E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5324722602752581E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7241068819757591E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.9071201977766514E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0825067959061261E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2510860420809254E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4135423419187561E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5704542501692002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7223159833071606E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8695536250914517E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0125375415232079E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1515920348775162E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.2870029515287847E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4190237495002063E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.5478803902251511E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.6737753213079633E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.796890748388383E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9173913451532786E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10035426514980927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10151132291584733</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10264632946602047</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10376042357468042</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10485465177814515</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.105929978441154</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10698729445704158</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10802742480136956</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10905113511820093</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11005913748604533</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11105209548482327</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11203062866455271</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.11299531649976875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.11394670190009977</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11488529433631696</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.11581157263203155</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11672598746366537</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11762896360504851</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11852090194776758</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.11940218132400612</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.12027316015493424</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12113417794459257</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.12198555663657816</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6587,6 +6921,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="1">
+                  <c:v>0.19989641656865875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20523695907571812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20871970357448641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21138108223961904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21356509048741951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21543205481733399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2170708464452481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21853632916563226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2198649726846672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22108236777952023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22220723036183523</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22325370354637458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2242327621076694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22515311114421918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22602178407268891</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22684455381108687</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22762622349826359</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22837083703035202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22908183474356322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22976217066336801</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23041440225190263</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23104076010485253</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23164320278405984</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23222346046391126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23278307004437365</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23332340367360821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23384569212308637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23435104410051752</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23484046232651212</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.235314857010293</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23577505721804068</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23622182052088189</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23665584122859049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23707775745297943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2374881571969388</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23788758362759532</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23827653966260132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.23865549197522781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.23902487450531432</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.23938509154819643</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.23973652048165484</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.24007951418113394</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24041440316546844</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.2407414975087791</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24106108854878183</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24137345041724534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2416788414146013</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24197750524756514</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.24226967214600847</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24255555987309566</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6799,6 +7283,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="1">
+                  <c:v>0.22303552398243762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22915268717369464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23315562679077526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23621860332360367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23873330705483028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24088290871931944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2427692003086723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2444551497912538</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24598268461282807</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24738126762223861</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24867247362580353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24987262424299972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25099439734776524</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25204785801158014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25304114518858867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25398094430121165</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25487282164385439</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25572146673574708</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25653087165445271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25730446618392677</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25804522132466085</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25875572972391525</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25943826898620065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26009485209330457</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26072726798595441</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26133711454355535</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26192582562369904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26249469341187259</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26304488703335532</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26357746815989896</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26409340418056693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26459357938335581</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26507880450092103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26554982490216961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26600732765608742</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26645194765093105</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.266884272917915</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26730484928158499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26771418443756401</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26811275154111519</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26850099237600733</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26887932016184934</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.26924812204880455</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.26960776134098152</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.26995857948354246</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.2703008978433491</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2706350193086442</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27096122972963993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.271279799218832</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.27159098332730303</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7013,6 +7647,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="1">
+                  <c:v>0.1515214134033826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1559696896769206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15889912838290474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16114412843047271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16298646375820797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1645589721559696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16593592033179053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16716346999186482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16827248056623262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16928471111614099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17021614254826009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17107889655140637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17188241108493174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17263419526090817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17334033329950566</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17400583207586995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17463486751180135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1752309634552171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17579712425950622</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17633593484769591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17684963745996465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17734019136772461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17780931993631555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17825854814986991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17868923284806357</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.17910258732517861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17949970151912611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17988155871522352</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1802490494695031</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18060298329443622</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18094409852939639</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18127307072742177</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18159051982080809</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18189701627505375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18219308639962412</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18247921695192912</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.18275585914566347</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18302343215464892</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18328232618732856</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18353290519423529</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18377550926036856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.18401045672597463</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.18423804607233277</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18445855760346941</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.18467225495004866</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.18487938641779736</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18508018619958583</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18527487546757798</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.185463663359582</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18564674787181751</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7225,6 +8009,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
+                <c:pt idx="1">
+                  <c:v>0.26757692978126185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2744543326339321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27891182284283689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28230862741262625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28509247811519017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28747095833933961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28955867400716867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29142614772442288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29312013188284053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29467335703805914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2961097127160382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29744721948636588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29869983866000843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2998786282453364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30099251094700014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30204880149300312</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30305357898516166</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30401195622765564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30492827866216532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30580627403618316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30664916685425198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30745976717867807</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.30824054043181087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30899366291321012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30972106642834718</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.31042447451447613</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.31110543210821656</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31176533004122203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.31240542541822036</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31302685868786967</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31363066803566569</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31421780159197077</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31478912784488466</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31534544456844443</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31588748651537973</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31641593207589175</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31693140906636413</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31743449978221394</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31792574542538515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.31840564999798554</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.31887468373822536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.31933328616234991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31978186876608994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32022081743080444</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32065049457260464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32107124106703344</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.3214833779771411</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.32188720810880744</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.32228301741383952</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.32267107625856334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7273,6 +8207,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7282,6 +8219,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.31879999999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7731,10 +8671,25 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('CG and Loading Diagram'!$C$25,'CG and Loading Diagram'!$C$28,'CG and Loading Diagram'!$C$29,'CG and Loading Diagram'!$C$30,'CG and Loading Diagram'!$C$25)</c:f>
+              <c:f>('CG and Loading Diagram'!$C$26,'CG and Loading Diagram'!$C$28,'CG and Loading Diagram'!$C$29,'CG and Loading Diagram'!$C$30,'CG and Loading Diagram'!$C$26)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.44675615212528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7744,14 +8699,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.89400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7787,8 +8748,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.88</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10318,8 +11282,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10365,12 +11329,12 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="100" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -10409,32 +11373,32 @@
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="104" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -10646,12 +11610,12 @@
       <c r="A28" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="101" t="s">
         <v>427</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -10750,11 +11714,11 @@
       <c r="A37" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="102" t="s">
         <v>391</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -10954,8 +11918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93947346-1B64-4777-8D18-B7A8C5A631AB}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A32" zoomScale="121" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11032,12 +11996,14 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -11046,12 +12012,12 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -11312,7 +12278,9 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>167.56</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>482</v>
       </c>
@@ -11328,7 +12296,9 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -11342,12 +12312,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
+      <c r="D25" s="112" t="s">
+        <v>689</v>
+      </c>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -11356,7 +12328,9 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>1.07</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
@@ -11372,7 +12346,9 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>3.36</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
@@ -11388,7 +12364,9 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.6</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
@@ -11404,7 +12382,9 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>2.02</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
@@ -11420,7 +12400,9 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>1.22</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
       </c>
@@ -11436,7 +12418,9 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>1.07</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
       </c>
@@ -11452,7 +12436,9 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <v>1.34</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
@@ -11463,12 +12449,14 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="111" t="s">
         <v>600</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="1">
+        <v>0.68</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
       </c>
@@ -11484,7 +12472,9 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>0.38</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
       </c>
@@ -11535,15 +12525,15 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="127" t="s">
+      <c r="A38" s="130" t="s">
         <v>411</v>
       </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -11577,17 +12567,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="111" t="s">
         <v>474</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -11669,11 +12659,70 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2ADF6B-BF9C-4A59-9A52-C6833E89D04B}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="14"/>
+      <c r="G1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14"/>
+      <c r="G2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="14"/>
+      <c r="G3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="14"/>
+      <c r="G4">
+        <v>1.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B73564-745F-4A75-9D39-D4C6FC2C711E}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11728,7 +12777,9 @@
       <c r="A3" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="70">
+        <v>0.25</v>
+      </c>
       <c r="C3" s="59" t="s">
         <v>483</v>
       </c>
@@ -11784,7 +12835,7 @@
       </c>
       <c r="F5" s="61">
         <f>Wing!B19</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G5" s="59" t="s">
         <v>24</v>
@@ -11806,7 +12857,9 @@
         <f>IF(OR('Configuration Selection'!$B$13="Under wing",'Configuration Selection'!$B$13="Over wing",'Configuration Selection'!$B$13="Burried in the wing"),"x_hl","X_hl")</f>
         <v>X_hl</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="71">
+        <v>21.9</v>
+      </c>
       <c r="G6" s="63" t="s">
         <v>24</v>
       </c>
@@ -11836,16 +12889,16 @@
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="64"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="133" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133" t="s">
         <v>309</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -11891,9 +12944,15 @@
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="E10" s="70">
+        <v>0.106</v>
+      </c>
+      <c r="F10" s="70">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G10" s="70">
+        <v>0.11799999999999999</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -11906,9 +12965,16 @@
       <c r="A11" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
+      <c r="B11" s="70">
+        <v>0.02</v>
+      </c>
+      <c r="C11" s="70">
+        <v>23.85</v>
+      </c>
+      <c r="D11" s="70">
+        <f>C11*B11</f>
+        <v>0.47700000000000004</v>
+      </c>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
@@ -11924,9 +12990,16 @@
       <c r="A12" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
+      <c r="B12" s="70">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="70">
+        <v>10.6</v>
+      </c>
+      <c r="D12" s="70">
+        <f t="shared" ref="D12:D15" si="0">C12*B12</f>
+        <v>1.272</v>
+      </c>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
@@ -11942,9 +13015,16 @@
       <c r="A13" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="70">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="70">
+        <v>23.25</v>
+      </c>
+      <c r="D13" s="70">
+        <f t="shared" si="0"/>
+        <v>0.23250000000000001</v>
+      </c>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
       <c r="G13" s="73"/>
@@ -11960,9 +13040,16 @@
       <c r="A14" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="B14" s="70">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C14" s="70">
+        <v>23.25</v>
+      </c>
+      <c r="D14" s="70">
+        <f t="shared" si="0"/>
+        <v>1.6275000000000002</v>
+      </c>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="73"/>
@@ -11978,9 +13065,16 @@
       <c r="A15" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="82">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C15" s="82">
+        <v>10.6</v>
+      </c>
+      <c r="D15" s="70">
+        <f t="shared" si="0"/>
+        <v>2.3849999999999998</v>
+      </c>
       <c r="E15" s="83"/>
       <c r="F15" s="83"/>
       <c r="G15" s="83"/>
@@ -11996,11 +13090,21 @@
       <c r="A16" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
+      <c r="B16" s="80">
+        <f>SUM(B11:B15)</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C16" s="80">
+        <f>SUM(D11:D15)/B16</f>
+        <v>13.469662921348315</v>
+      </c>
       <c r="D16" s="78"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
+      <c r="E16" s="80">
+        <v>0.106</v>
+      </c>
+      <c r="F16" s="80">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="G16" s="78"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -12051,7 +13155,9 @@
       <c r="B19" s="58" t="s">
         <v>547</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="72">
+        <v>12.88</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
@@ -12073,7 +13179,7 @@
       </c>
       <c r="C20" s="6">
         <f>C19+F5</f>
-        <v>0</v>
+        <v>15.68</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>24</v>
@@ -12169,9 +13275,16 @@
       <c r="A25" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
+      <c r="B25" s="71">
+        <v>0.62</v>
+      </c>
+      <c r="C25" s="16">
+        <v>13.6</v>
+      </c>
+      <c r="D25" s="71">
+        <f>C25*B25</f>
+        <v>8.4320000000000004</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -12187,9 +13300,16 @@
       <c r="A26" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
+      <c r="B26" s="71">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C26" s="71">
+        <v>13.1</v>
+      </c>
+      <c r="D26" s="71">
+        <f t="shared" ref="D26:D27" si="1">C26*B26</f>
+        <v>3.5894000000000004</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -12205,9 +13325,16 @@
       <c r="A27" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="B27" s="79">
+        <v>0.106</v>
+      </c>
+      <c r="C27" s="79">
+        <v>13.6</v>
+      </c>
+      <c r="D27" s="71">
+        <f t="shared" si="1"/>
+        <v>1.4416</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -12225,9 +13352,12 @@
       </c>
       <c r="B28" s="67">
         <f>B25+B26</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="77"/>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C28" s="77">
+        <f>(D25+D26)/(B25+B26)</f>
+        <v>13.44675615212528</v>
+      </c>
       <c r="D28" s="78"/>
       <c r="E28" s="6"/>
       <c r="F28" s="2"/>
@@ -12246,9 +13376,11 @@
       </c>
       <c r="B29" s="67">
         <f>B25+B26+B27</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="71"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="71">
+        <v>13.5</v>
+      </c>
       <c r="D29" s="73"/>
       <c r="E29" s="6"/>
       <c r="F29" s="2"/>
@@ -12267,9 +13399,12 @@
       </c>
       <c r="B30" s="69">
         <f>B25+B27</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="71"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C30" s="71">
+        <f>(D25+D27)/(B25+B27)</f>
+        <v>13.6</v>
+      </c>
       <c r="D30" s="74"/>
       <c r="E30" s="6"/>
       <c r="F30" s="2"/>
@@ -12322,7 +13457,7 @@
       </c>
       <c r="B33" s="6">
         <f>MIN(C28:C30)</f>
-        <v>0</v>
+        <v>13.44675615212528</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -12345,7 +13480,7 @@
       </c>
       <c r="B34" s="6">
         <f>MAX(C28:C30)</f>
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -12528,12 +13663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1699951C-AAFB-40D4-87BC-671CF3964740}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12678,13 +13813,13 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12730,60 +13865,60 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="135" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="131"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="135" t="s">
         <v>360</v>
       </c>
-      <c r="B19" s="131"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="135" t="s">
         <v>361</v>
       </c>
-      <c r="B20" s="131"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="135" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="131"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="135" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="131"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="135" t="s">
         <v>364</v>
       </c>
-      <c r="B23" s="131"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -12810,11 +13945,11 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="104" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -12828,13 +13963,13 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -12856,21 +13991,21 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="135" t="s">
         <v>366</v>
       </c>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="136" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -12888,21 +14023,21 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="131" t="s">
+      <c r="A34" s="135" t="s">
         <v>369</v>
       </c>
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="135" t="s">
         <v>370</v>
       </c>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -12916,10 +14051,10 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="100"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
@@ -12928,11 +14063,11 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="133" t="s">
+      <c r="A38" s="134" t="s">
         <v>379</v>
       </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -12946,21 +14081,21 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
+      <c r="A40" s="134" t="s">
         <v>375</v>
       </c>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="134" t="s">
         <v>377</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -13020,12 +14155,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DTEFbU7u0Ho++EM/YNUXu9ZQOI7PW5JkWzAhk8J8CoLhfFCcrpuDZmwmPfd1G9kx4JNdO0VfFEYrkO1CgZ7kBQ==" saltValue="KDY4vzktrA+2TnT6bpvCvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="17">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A26:C26"/>
@@ -13037,17 +14166,23 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC14F55-5905-45DE-B739-360C648C3C37}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -13070,12 +14205,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="137" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -13256,12 +14391,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="137" t="s">
         <v>388</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -13492,12 +14627,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BBF2CA-544D-4E1E-81C5-407ABA6ABB5E}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13509,11 +14644,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -13521,9 +14656,9 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -13531,9 +14666,9 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -13541,9 +14676,9 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -13576,6 +14711,14 @@
         <v>252</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Jm9om01MdKbM9VcNi+oOIl4Uu/mlNVmvlhDO4T/+bTUoODhm3ThW+4bHstYGE5FkZam41TPb8sDsuls8B/WpgQ==" saltValue="BUnaJl9txsUKstur52H2nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" sort="0"/>
   <mergeCells count="1">
@@ -13585,7 +14728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB433A1-A272-440A-9F3E-E3D2C023A1A7}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A6:K36"/>
@@ -13884,8 +15027,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A18" zoomScale="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13936,10 +15079,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
@@ -14733,8 +15876,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14993,13 +16136,13 @@
         <v>620</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M8" s="1">
         <v>400</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -15010,11 +16153,11 @@
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="97" t="s">
         <v>621</v>
       </c>
-      <c r="C9" s="136" t="s">
-        <v>658</v>
+      <c r="C9" s="97" t="s">
+        <v>657</v>
       </c>
       <c r="D9" s="1">
         <v>74</v>
@@ -15032,22 +16175,22 @@
         <v>19730</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M9" s="1">
         <v>389</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -15095,7 +16238,7 @@
         <v>425</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -15137,13 +16280,13 @@
         <v>12</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M11" s="1">
         <v>397</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -15185,13 +16328,13 @@
         <v>632</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M12" s="1">
         <v>362</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -15444,7 +16587,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:G26"/>
     </sheetView>
   </sheetViews>
@@ -15454,29 +16597,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="103" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -15513,14 +16656,14 @@
       <c r="A5" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="106" t="s">
         <v>633</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -15620,14 +16763,14 @@
       <c r="A12" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="106" t="s">
         <v>634</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -15652,14 +16795,14 @@
       <c r="A14" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="106" t="s">
         <v>635</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -15668,14 +16811,14 @@
       <c r="A15" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="106" t="s">
         <v>636</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -15684,14 +16827,14 @@
       <c r="A16" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="106" t="s">
         <v>637</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -15760,14 +16903,14 @@
       <c r="A21" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="106" t="s">
         <v>639</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -15776,14 +16919,14 @@
       <c r="A22" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="106" t="s">
         <v>638</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -15820,14 +16963,14 @@
       <c r="A25" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="106" t="s">
         <v>640</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -15836,14 +16979,14 @@
       <c r="A26" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="106" t="s">
         <v>641</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -15887,17 +17030,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CqlXtYj3cC4mjgw79I0vhy8ap8pqtHnJgv+J3L98TaIAT9IitOrh1GiklkyY+zZLvFIY43V+suIsNtfMy04RcA==" saltValue="e7C+SzTRC78xq0FmMozdcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B12:G12"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15962,8 +17105,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15974,14 +17117,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16016,17 +17159,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -16385,42 +17528,42 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="104" t="s">
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="108" t="s">
         <v>648</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="104" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="108" t="s">
         <v>649</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="107" t="s">
         <v>536</v>
       </c>
-      <c r="B27" s="105"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="33"/>
@@ -16433,10 +17576,10 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="107" t="s">
         <v>537</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -16677,7 +17820,9 @@
       <c r="B43" s="37"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="16">
+        <v>2.75</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>24</v>
       </c>
@@ -16693,7 +17838,9 @@
       <c r="B44" s="37"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>2.96</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>24</v>
       </c>
@@ -16703,13 +17850,15 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="107" t="s">
         <v>522</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="1"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="1">
+        <v>2.96</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>24</v>
       </c>
@@ -16719,13 +17868,15 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="107" t="s">
         <v>523</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="1">
+        <v>2.96</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>24</v>
       </c>
@@ -16735,13 +17886,15 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="105" t="s">
+      <c r="A47" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="1">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>24</v>
       </c>
@@ -16839,7 +17992,9 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1">
+        <v>3.5</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>24</v>
       </c>
@@ -16855,7 +18010,9 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1">
+        <v>1.8</v>
+      </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
       </c>
@@ -16871,7 +18028,9 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
       </c>
@@ -16887,7 +18046,9 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="26"/>
+      <c r="E57" s="26">
+        <v>0.33300000000000002</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
       </c>
@@ -16903,11 +18064,13 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
+      <c r="E58" s="108" t="s">
+        <v>682</v>
+      </c>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -16931,7 +18094,9 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1">
+        <v>20</v>
+      </c>
       <c r="F60" s="2" t="s">
         <v>24</v>
       </c>
@@ -16947,7 +18112,9 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>26.5</v>
+      </c>
       <c r="F61" s="2" t="s">
         <v>24</v>
       </c>
@@ -16989,7 +18156,9 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="16">
+        <v>30</v>
+      </c>
       <c r="F64" s="2" t="s">
         <v>479</v>
       </c>
@@ -17005,7 +18174,9 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="26"/>
+      <c r="E65" s="1">
+        <v>25</v>
+      </c>
       <c r="F65" s="2" t="s">
         <v>479</v>
       </c>
@@ -17021,11 +18192,13 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
+      <c r="E66" s="112" t="s">
+        <v>684</v>
+      </c>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -17035,7 +18208,9 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="92"/>
+      <c r="E67" s="92">
+        <v>6</v>
+      </c>
       <c r="F67" s="2" t="s">
         <v>479</v>
       </c>
@@ -17051,11 +18226,13 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="112"/>
+      <c r="E68" s="113" t="s">
+        <v>683</v>
+      </c>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="115"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -17130,16 +18307,22 @@
       <c r="A73" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="26"/>
+      <c r="E73" s="26">
+        <v>1</v>
+      </c>
       <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="G73" s="26">
+        <v>1</v>
+      </c>
       <c r="H73" s="26"/>
       <c r="I73" s="2">
         <f>SUM(B73:H73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" s="2"/>
     </row>
@@ -17150,11 +18333,13 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="104"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
+      <c r="E74" s="108" t="s">
+        <v>685</v>
+      </c>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -17236,11 +18421,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vz9K8Y7VSXxpvbbm+Mqf5vAnJs8MZ2iIB9gC33elWJNP+/ia6c4k+LmVzH9nfTQK22fcuJJ+hloCVH/t+137kg==" saltValue="If1oKsGAr9pIGpOoimVdLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="E74:I74"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
@@ -17252,6 +18432,11 @@
     <mergeCell ref="E58:I58"/>
     <mergeCell ref="E66:I66"/>
     <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17264,8 +18449,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17277,26 +18462,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>510</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -17335,8 +18520,8 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
-        <v>652</v>
+      <c r="D6" s="1">
+        <v>9.5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -17356,55 +18541,55 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="108" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="108" t="s">
         <v>653</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="104" t="s">
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108" t="s">
         <v>654</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="104" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="108" t="s">
         <v>655</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="104" t="s">
-        <v>656</v>
-      </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -17441,24 +18626,24 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="117" t="s">
         <v>476</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
-        <v>657</v>
+      <c r="D16" s="1">
+        <v>5.5</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -17483,7 +18668,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="137">
+      <c r="D18" s="98">
         <v>395</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -17499,7 +18684,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
@@ -17514,7 +18699,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -17549,7 +18734,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -17563,8 +18748,8 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
-        <v>663</v>
+      <c r="D24" s="1">
+        <v>0.94499999999999995</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -17573,13 +18758,13 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="1" t="s">
-        <v>665</v>
+      <c r="D25" s="1">
+        <v>18.05</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -17588,13 +18773,13 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="105"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="1" t="s">
-        <v>664</v>
+      <c r="D26" s="1">
+        <v>0.78</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -17671,8 +18856,8 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="138" t="s">
-        <v>666</v>
+      <c r="D32" s="99" t="s">
+        <v>662</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -17720,7 +18905,9 @@
         <v>229</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1">
+        <v>15</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>479</v>
       </c>
@@ -17764,9 +18951,15 @@
       <c r="B39" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.7874999999999999E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.78</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
@@ -17777,9 +18970,15 @@
       <c r="B40" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16">
+        <v>3.2875000000000001E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.78</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
@@ -17790,9 +18989,15 @@
       <c r="B41" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="1">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.7374999999999999E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.84899999999999998</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
@@ -17803,9 +19008,15 @@
       <c r="B42" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="1">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.2374999999999998E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.84899999999999998</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
@@ -17816,9 +19027,15 @@
       <c r="B43" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="1">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7.6374999999999998E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
@@ -17829,21 +19046,21 @@
       <c r="B44" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="1">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.1374999999999998E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0VL3Vkm2dIJXSrgm39vuhF2Tvxksg+Dtw293ASpKtYsR6irr6kiwwLr/ccbrVSOGU2/KyOJPXHz9BOYwnMIQWg==" saltValue="Zt961gDI/nfNEe2LU3Uh3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -17852,6 +19069,12 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17863,8 +19086,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A10" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17966,7 +19189,7 @@
         <v>179</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -18122,7 +19345,7 @@
         <v>442</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -18268,7 +19491,7 @@
         <v>330</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -18418,7 +19641,9 @@
       <c r="A24" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>0.27400000000000002</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
@@ -18586,8 +19811,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:CA191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E98" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView topLeftCell="A82" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18604,15 +19829,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="126"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -18638,15 +19863,15 @@
       <c r="AD1" s="15"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="118" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -18706,15 +19931,15 @@
       <c r="AD3" s="15"/>
     </row>
     <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -18740,15 +19965,15 @@
       <c r="AD4" s="15"/>
     </row>
     <row r="5" spans="1:30" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -18774,15 +19999,15 @@
       <c r="AD5" s="15"/>
     </row>
     <row r="6" spans="1:30" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="118" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -18808,15 +20033,15 @@
       <c r="AD6" s="15"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="118" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -18842,15 +20067,15 @@
       <c r="AD7" s="15"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="119"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -18876,15 +20101,15 @@
       <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -18984,7 +20209,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -19022,7 +20247,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -19060,7 +20285,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -19098,7 +20323,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -19136,7 +20361,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -19174,7 +20399,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -19390,7 +20615,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>45</v>
@@ -19712,7 +20937,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>45</v>
@@ -20921,7 +22146,9 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="16">
+        <v>3.2875000000000001E-2</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -20957,8 +22184,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E65" s="16"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -21080,11 +22309,11 @@
       <c r="AD67" s="15"/>
     </row>
     <row r="68" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="B68" s="101"/>
-      <c r="C68" s="120"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -21411,7 +22640,9 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1">
+        <v>5.2374999999999998E-2</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -21445,7 +22676,9 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1">
+        <v>0.84899999999999998</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -21552,7 +22785,9 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1">
+        <v>95461</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>481</v>
       </c>
@@ -21588,7 +22823,9 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1">
+        <v>1.1159600000000001</v>
+      </c>
       <c r="E82" s="2" t="s">
         <v>423</v>
       </c>
@@ -21624,7 +22861,9 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -21794,7 +23033,9 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1">
+        <v>4100</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>535</v>
       </c>
@@ -21831,7 +23072,9 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1">
+        <v>0.31879999999999997</v>
+      </c>
       <c r="E89" s="2" t="str">
         <f>IF('Configuration Selection'!$B$10="propeller","[N/W]","[N/N]")</f>
         <v>[N/N]</v>
@@ -21938,7 +23181,9 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1">
+        <v>70.87</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>478</v>
       </c>
@@ -21974,7 +23219,9 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1">
+        <v>25.946999999999999</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>24</v>
       </c>
@@ -22011,7 +23258,9 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1">
+        <v>92.63</v>
+      </c>
       <c r="E94" s="2" t="str">
         <f>IF('Configuration Selection'!$B$10="propeller","kW","kN")</f>
         <v>kN</v>
@@ -22312,13 +23561,34 @@
         <v>4100</v>
       </c>
       <c r="E101" s="15"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
+      <c r="F101" s="16">
+        <f>((0.95)/(0.3829*POWER(1+0.000011419*B101,3.5)*(1-0.57*SQRT(SQRT(B101*5.506)/310.56)))*(SQRT(2.76019/B101)+0.05542))</f>
+        <v>0.64922984610833734</v>
+      </c>
+      <c r="G101" s="15">
+        <f>(1/(POWER(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.15565625430108562</v>
+      </c>
+      <c r="H101" s="15">
+        <f>2*(1/(POWER(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42)))</f>
+        <v>0.19989641656865875</v>
+      </c>
+      <c r="I101" s="15">
+        <f>2*(1/(POWER(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.22303552398243762</v>
+      </c>
+      <c r="J101" s="15">
+        <f>2*(1/(POWER(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.1515214134033826</v>
+      </c>
+      <c r="K101" s="15">
+        <f>2*(1/(POWER(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B101*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B101*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.26757692978126185</v>
+      </c>
+      <c r="L101" s="15">
+        <f>1.15*(POWER(1+0.2*B101*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B101*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B101*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B101*2/(1.11596*2.2)))))*(SQRT(B101/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>4.4075832784648959E-2</v>
+      </c>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
@@ -22350,16 +23620,34 @@
         <v>4100</v>
       </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="15">
-        <f>4.75*(SQRT(2.6226/(0.95*B102))+0.05542)</f>
-        <v>0.82130749650016799</v>
-      </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
+      <c r="F102" s="16">
+        <f t="shared" ref="F102:F150" si="0">((0.95)/(0.3829*POWER(1+0.000011419*B102,3.5)*(1-0.57*SQRT(SQRT(B102*5.506)/310.56)))*(SQRT(2.76019/B102)+0.05542))</f>
+        <v>0.52300734063352672</v>
+      </c>
+      <c r="G102" s="15">
+        <f>(1/(POWER(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.15960755999611931</v>
+      </c>
+      <c r="H102" s="15">
+        <f>2*(1/(POWER(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.20523695907571812</v>
+      </c>
+      <c r="I102" s="15">
+        <f>2*(1/(POWER(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.22915268717369464</v>
+      </c>
+      <c r="J102" s="15">
+        <f>2*(1/(POWER(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.1559696896769206</v>
+      </c>
+      <c r="K102" s="15">
+        <f>2*(1/(POWER(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B102*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B102*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.2744543326339321</v>
+      </c>
+      <c r="L102" s="15">
+        <f>1.15*(POWER(1+0.2*B102*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B102*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B102*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B102*2/(1.11596*2.2)))))*(SQRT(B102/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>4.979817870821078E-2</v>
+      </c>
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
@@ -22391,16 +23679,34 @@
         <v>4100</v>
       </c>
       <c r="E103" s="15"/>
-      <c r="F103" s="15">
-        <f t="shared" ref="F103:F150" si="0">4.75*(SQRT(2.6226/(0.95*B103))+0.05542)</f>
-        <v>0.71890112033637821</v>
-      </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
+      <c r="F103" s="16">
+        <f t="shared" si="0"/>
+        <v>0.46739400306085693</v>
+      </c>
+      <c r="G103" s="15">
+        <f>(1/(POWER(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.16216273705695911</v>
+      </c>
+      <c r="H103" s="15">
+        <f>2*(1/(POWER(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.20871970357448641</v>
+      </c>
+      <c r="I103" s="15">
+        <f>2*(1/(POWER(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.23315562679077526</v>
+      </c>
+      <c r="J103" s="15">
+        <f>2*(1/(POWER(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.15889912838290474</v>
+      </c>
+      <c r="K103" s="15">
+        <f>2*(1/(POWER(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B103*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B103*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.27891182284283689</v>
+      </c>
+      <c r="L103" s="15">
+        <f>1.15*(POWER(1+0.2*B103*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B103*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B103*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B103*2/(1.11596*2.2)))))*(SQRT(B103/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>5.416505529398493E-2</v>
+      </c>
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
@@ -22432,16 +23738,34 @@
         <v>4100</v>
       </c>
       <c r="E104" s="15"/>
-      <c r="F104" s="15">
+      <c r="F104" s="16">
         <f t="shared" si="0"/>
-        <v>0.65785477560116268</v>
-      </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
+        <v>0.43442168832722078</v>
+      </c>
+      <c r="G104" s="15">
+        <f>(1/(POWER(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.16410773062795486</v>
+      </c>
+      <c r="H104" s="15">
+        <f>2*(1/(POWER(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.21138108223961904</v>
+      </c>
+      <c r="I104" s="15">
+        <f>2*(1/(POWER(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.23621860332360367</v>
+      </c>
+      <c r="J104" s="15">
+        <f>2*(1/(POWER(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.16114412843047271</v>
+      </c>
+      <c r="K104" s="15">
+        <f>2*(1/(POWER(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B104*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B104*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.28230862741262625</v>
+      </c>
+      <c r="L104" s="15">
+        <f>1.15*(POWER(1+0.2*B104*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B104*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B104*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B104*2/(1.11596*2.2)))))*(SQRT(B104/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>5.7817700597381547E-2</v>
+      </c>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
@@ -22473,16 +23797,34 @@
         <v>4100</v>
       </c>
       <c r="E105" s="15"/>
-      <c r="F105" s="15">
+      <c r="F105" s="16">
         <f t="shared" si="0"/>
-        <v>0.61619471313205509</v>
-      </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
+        <v>0.4120258048571207</v>
+      </c>
+      <c r="G105" s="15">
+        <f>(1/(POWER(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.16570079324974074</v>
+      </c>
+      <c r="H105" s="15">
+        <f>2*(1/(POWER(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.21356509048741951</v>
+      </c>
+      <c r="I105" s="15">
+        <f>2*(1/(POWER(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.23873330705483028</v>
+      </c>
+      <c r="J105" s="15">
+        <f>2*(1/(POWER(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.16298646375820797</v>
+      </c>
+      <c r="K105" s="15">
+        <f>2*(1/(POWER(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B105*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B105*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.28509247811519017</v>
+      </c>
+      <c r="L105" s="15">
+        <f>1.15*(POWER(1+0.2*B105*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B105*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B105*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B105*2/(1.11596*2.2)))))*(SQRT(B105/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>6.1011079224803255E-2</v>
+      </c>
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
@@ -22514,16 +23856,34 @@
         <v>4100</v>
       </c>
       <c r="E106" s="15"/>
-      <c r="F106" s="15">
+      <c r="F106" s="16">
         <f t="shared" si="0"/>
-        <v>0.58544253257900647</v>
-      </c>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
+        <v>0.39555631734653679</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(1/(POWER(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.16706144875332815</v>
+      </c>
+      <c r="H106" s="15">
+        <f>2*(1/(POWER(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.21543205481733399</v>
+      </c>
+      <c r="I106" s="15">
+        <f>2*(1/(POWER(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.24088290871931944</v>
+      </c>
+      <c r="J106" s="15">
+        <f>2*(1/(POWER(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.1645589721559696</v>
+      </c>
+      <c r="K106" s="15">
+        <f>2*(1/(POWER(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B106*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B106*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.28747095833933961</v>
+      </c>
+      <c r="L106" s="15">
+        <f>1.15*(POWER(1+0.2*B106*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B106*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B106*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B106*2/(1.11596*2.2)))))*(SQRT(B106/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>6.3877511484559432E-2</v>
+      </c>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
@@ -22555,16 +23915,34 @@
         <v>4100</v>
       </c>
       <c r="E107" s="15"/>
-      <c r="F107" s="15">
+      <c r="F107" s="16">
         <f t="shared" si="0"/>
-        <v>0.56154195175876576</v>
-      </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
+        <v>0.38279236641074721</v>
+      </c>
+      <c r="G107" s="15">
+        <f>(1/(POWER(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.16825559578224528</v>
+      </c>
+      <c r="H107" s="15">
+        <f>2*(1/(POWER(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.2170708464452481</v>
+      </c>
+      <c r="I107" s="15">
+        <f>2*(1/(POWER(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.2427692003086723</v>
+      </c>
+      <c r="J107" s="15">
+        <f>2*(1/(POWER(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.16593592033179053</v>
+      </c>
+      <c r="K107" s="15">
+        <f>2*(1/(POWER(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B107*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B107*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.28955867400716867</v>
+      </c>
+      <c r="L107" s="15">
+        <f>1.15*(POWER(1+0.2*B107*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B107*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B107*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B107*2/(1.11596*2.2)))))*(SQRT(B107/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>6.6496118634871926E-2</v>
+      </c>
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
@@ -22595,17 +23973,38 @@
       <c r="D108" s="15">
         <v>4100</v>
       </c>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15">
+      <c r="E108" s="15">
+        <f t="shared" ref="E108:E150" si="1">4.51*(180.427/(0.95*B108)+(0.95*B108)/242397)</f>
+        <v>1.0848322416634151</v>
+      </c>
+      <c r="F108" s="16">
         <f t="shared" si="0"/>
-        <v>0.54227624825008391</v>
-      </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
+        <v>0.3725228582082139</v>
+      </c>
+      <c r="G108" s="15">
+        <f>(1/(POWER(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.16932374006761619</v>
+      </c>
+      <c r="H108" s="15">
+        <f>2*(1/(POWER(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.21853632916563226</v>
+      </c>
+      <c r="I108" s="15">
+        <f>2*(1/(POWER(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.2444551497912538</v>
+      </c>
+      <c r="J108" s="15">
+        <f>2*(1/(POWER(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.16716346999186482</v>
+      </c>
+      <c r="K108" s="15">
+        <f>2*(1/(POWER(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B108*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B108*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.29142614772442288</v>
+      </c>
+      <c r="L108" s="15">
+        <f>1.15*(POWER(1+0.2*B108*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B108*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B108*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B108*2/(1.11596*2.2)))))*(SQRT(B108/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>6.8918654881734209E-2</v>
+      </c>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
@@ -22636,17 +24035,38 @@
       <c r="D109" s="15">
         <v>4100</v>
       </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15">
+      <c r="E109" s="15">
+        <f t="shared" si="1"/>
+        <v>0.96763404069444137</v>
+      </c>
+      <c r="F109" s="16">
         <f t="shared" si="0"/>
-        <v>0.52631818373410844</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+        <v>0.36402441647902578</v>
+      </c>
+      <c r="G109" s="15">
+        <f>(1/(POWER(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.1702927096171632</v>
+      </c>
+      <c r="H109" s="15">
+        <f>2*(1/(POWER(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.2198649726846672</v>
+      </c>
+      <c r="I109" s="15">
+        <f>2*(1/(POWER(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.24598268461282807</v>
+      </c>
+      <c r="J109" s="15">
+        <f>2*(1/(POWER(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.16827248056623262</v>
+      </c>
+      <c r="K109" s="15">
+        <f>2*(1/(POWER(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B109*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B109*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.29312013188284053</v>
+      </c>
+      <c r="L109" s="15">
+        <f>1.15*(POWER(1+0.2*B109*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B109*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B109*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B109*2/(1.11596*2.2)))))*(SQRT(B109/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>7.1181155119801165E-2</v>
+      </c>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
@@ -22677,17 +24097,38 @@
       <c r="D110" s="15">
         <v>4100</v>
       </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15">
+      <c r="E110" s="15">
+        <f t="shared" si="1"/>
+        <v>0.87422899089505823</v>
+      </c>
+      <c r="F110" s="16">
         <f t="shared" si="0"/>
-        <v>0.51281813557352274</v>
-      </c>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
+        <v>0.35683519674865383</v>
+      </c>
+      <c r="G110" s="15">
+        <f>(1/(POWER(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.1711812712952504</v>
+      </c>
+      <c r="H110" s="15">
+        <f>2*(1/(POWER(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22108236777952023</v>
+      </c>
+      <c r="I110" s="15">
+        <f>2*(1/(POWER(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.24738126762223861</v>
+      </c>
+      <c r="J110" s="15">
+        <f>2*(1/(POWER(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.16928471111614099</v>
+      </c>
+      <c r="K110" s="15">
+        <f>2*(1/(POWER(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B110*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B110*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.29467335703805914</v>
+      </c>
+      <c r="L110" s="15">
+        <f>1.15*(POWER(1+0.2*B110*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B110*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B110*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B110*2/(1.11596*2.2)))))*(SQRT(B110/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>7.3309893981284804E-2</v>
+      </c>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
@@ -22718,17 +24159,38 @@
       <c r="D111" s="15">
         <v>4100</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15">
+      <c r="E111" s="15">
+        <f t="shared" si="1"/>
+        <v>0.79812805103719564</v>
+      </c>
+      <c r="F111" s="16">
         <f t="shared" si="0"/>
-        <v>0.50120364805007234</v>
-      </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
+        <v>0.35064489270486793</v>
+      </c>
+      <c r="G111" s="15">
+        <f>(1/(POWER(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17200311321011508</v>
+      </c>
+      <c r="H111" s="15">
+        <f>2*(1/(POWER(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22220723036183523</v>
+      </c>
+      <c r="I111" s="15">
+        <f>2*(1/(POWER(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.24867247362580353</v>
+      </c>
+      <c r="J111" s="15">
+        <f>2*(1/(POWER(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17021614254826009</v>
+      </c>
+      <c r="K111" s="15">
+        <f>2*(1/(POWER(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B111*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B111*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.2961097127160382</v>
+      </c>
+      <c r="L111" s="15">
+        <f>1.15*(POWER(1+0.2*B111*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B111*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B111*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B111*2/(1.11596*2.2)))))*(SQRT(B111/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>7.5324722602752581E-2</v>
+      </c>
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
@@ -22760,19 +24222,37 @@
         <v>4100</v>
       </c>
       <c r="E112" s="15">
-        <f t="shared" ref="E102:E165" si="1">6.26*(180.427/(0.95*B112)+(0.95*B112)/242397)</f>
-        <v>1.0202067654452471</v>
-      </c>
-      <c r="F112" s="15">
+        <f t="shared" si="1"/>
+        <v>0.73500519363547356</v>
+      </c>
+      <c r="F112" s="16">
         <f t="shared" si="0"/>
-        <v>0.49107306016818908</v>
-      </c>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
+        <v>0.34523642167170626</v>
+      </c>
+      <c r="G112" s="15">
+        <f>(1/(POWER(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17276855433429267</v>
+      </c>
+      <c r="H112" s="15">
+        <f>2*(1/(POWER(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22325370354637458</v>
+      </c>
+      <c r="I112" s="15">
+        <f>2*(1/(POWER(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.24987262424299972</v>
+      </c>
+      <c r="J112" s="15">
+        <f>2*(1/(POWER(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17107889655140637</v>
+      </c>
+      <c r="K112" s="15">
+        <f>2*(1/(POWER(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B112*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B112*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.29744721948636588</v>
+      </c>
+      <c r="L112" s="15">
+        <f>1.15*(POWER(1+0.2*B112*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B112*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B112*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B112*2/(1.11596*2.2)))))*(SQRT(B112/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>7.7241068819757591E-2</v>
+      </c>
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
@@ -22805,18 +24285,36 @@
       </c>
       <c r="E113" s="15">
         <f t="shared" si="1"/>
-        <v>0.94644742426159068</v>
-      </c>
-      <c r="F113" s="15">
+        <v>0.68186547658462848</v>
+      </c>
+      <c r="F113" s="16">
         <f t="shared" si="0"/>
-        <v>0.48213511995835856</v>
-      </c>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
+        <v>0.34045285644348128</v>
+      </c>
+      <c r="G113" s="15">
+        <f>(1/(POWER(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17348558479967732</v>
+      </c>
+      <c r="H113" s="15">
+        <f>2*(1/(POWER(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.2242327621076694</v>
+      </c>
+      <c r="I113" s="15">
+        <f>2*(1/(POWER(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25099439734776524</v>
+      </c>
+      <c r="J113" s="15">
+        <f>2*(1/(POWER(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17188241108493174</v>
+      </c>
+      <c r="K113" s="15">
+        <f>2*(1/(POWER(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B113*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B113*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.29869983866000843</v>
+      </c>
+      <c r="L113" s="15">
+        <f>1.15*(POWER(1+0.2*B113*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B113*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B113*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B113*2/(1.11596*2.2)))))*(SQRT(B113/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>7.9071201977766514E-2</v>
+      </c>
       <c r="M113" s="15"/>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
@@ -22849,18 +24347,36 @@
       </c>
       <c r="E114" s="15">
         <f t="shared" si="1"/>
-        <v>0.8835756194187866</v>
-      </c>
-      <c r="F114" s="15">
+        <v>0.63656965552375833</v>
+      </c>
+      <c r="F114" s="16">
         <f t="shared" si="0"/>
-        <v>0.47417279739589963</v>
-      </c>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
+        <v>0.33617763232869791</v>
+      </c>
+      <c r="G114" s="15">
+        <f>(1/(POWER(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17416052999520845</v>
+      </c>
+      <c r="H114" s="15">
+        <f>2*(1/(POWER(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22515311114421918</v>
+      </c>
+      <c r="I114" s="15">
+        <f>2*(1/(POWER(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25204785801158014</v>
+      </c>
+      <c r="J114" s="15">
+        <f>2*(1/(POWER(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17263419526090817</v>
+      </c>
+      <c r="K114" s="15">
+        <f>2*(1/(POWER(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B114*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B114*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.2998786282453364</v>
+      </c>
+      <c r="L114" s="15">
+        <f>1.15*(POWER(1+0.2*B114*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B114*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B114*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B114*2/(1.11596*2.2)))))*(SQRT(B114/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>8.0825067959061261E-2</v>
+      </c>
       <c r="M114" s="15"/>
       <c r="N114" s="15"/>
       <c r="O114" s="15"/>
@@ -22893,18 +24409,36 @@
       </c>
       <c r="E115" s="15">
         <f t="shared" si="1"/>
-        <v>0.82941384364866411</v>
-      </c>
-      <c r="F115" s="15">
+        <v>0.59754895125486818</v>
+      </c>
+      <c r="F115" s="16">
         <f t="shared" si="0"/>
-        <v>0.46702061188719318</v>
-      </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
+        <v>0.33232216205709758</v>
+      </c>
+      <c r="G115" s="15">
+        <f>(1/(POWER(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17479849154402169</v>
+      </c>
+      <c r="H115" s="15">
+        <f>2*(1/(POWER(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22602178407268891</v>
+      </c>
+      <c r="I115" s="15">
+        <f>2*(1/(POWER(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25304114518858867</v>
+      </c>
+      <c r="J115" s="15">
+        <f>2*(1/(POWER(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17334033329950566</v>
+      </c>
+      <c r="K115" s="15">
+        <f>2*(1/(POWER(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B115*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B115*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30099251094700014</v>
+      </c>
+      <c r="L115" s="15">
+        <f>1.15*(POWER(1+0.2*B115*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B115*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B115*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B115*2/(1.11596*2.2)))))*(SQRT(B115/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>8.2510860420809254E-2</v>
+      </c>
       <c r="M115" s="15"/>
       <c r="N115" s="15"/>
       <c r="O115" s="15"/>
@@ -22937,18 +24471,36 @@
       </c>
       <c r="E116" s="15">
         <f t="shared" si="1"/>
-        <v>0.78232896650009565</v>
-      </c>
-      <c r="F116" s="15">
+        <v>0.56362677937946182</v>
+      </c>
+      <c r="F116" s="16">
         <f t="shared" si="0"/>
-        <v>0.46054988780058137</v>
-      </c>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
+        <v>0.32881779240296793</v>
+      </c>
+      <c r="G116" s="15">
+        <f>(1/(POWER(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17540364993983618</v>
+      </c>
+      <c r="H116" s="15">
+        <f>2*(1/(POWER(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22684455381108687</v>
+      </c>
+      <c r="I116" s="15">
+        <f>2*(1/(POWER(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25398094430121165</v>
+      </c>
+      <c r="J116" s="15">
+        <f>2*(1/(POWER(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17400583207586995</v>
+      </c>
+      <c r="K116" s="15">
+        <f>2*(1/(POWER(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B116*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B116*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30204880149300312</v>
+      </c>
+      <c r="L116" s="15">
+        <f>1.15*(POWER(1+0.2*B116*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B116*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B116*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B116*2/(1.11596*2.2)))))*(SQRT(B116/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>8.4135423419187561E-2</v>
+      </c>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
@@ -22981,18 +24533,36 @@
       </c>
       <c r="E117" s="15">
         <f t="shared" si="1"/>
-        <v>0.74107212351045371</v>
-      </c>
-      <c r="F117" s="15">
+        <v>0.53390339888692429</v>
+      </c>
+      <c r="F117" s="16">
         <f t="shared" si="0"/>
-        <v>0.45465885714175019</v>
-      </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
+        <v>0.32561041270062951</v>
+      </c>
+      <c r="G117" s="15">
+        <f>(1/(POWER(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17597947814445455</v>
+      </c>
+      <c r="H117" s="15">
+        <f>2*(1/(POWER(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22762622349826359</v>
+      </c>
+      <c r="I117" s="15">
+        <f>2*(1/(POWER(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25487282164385439</v>
+      </c>
+      <c r="J117" s="15">
+        <f>2*(1/(POWER(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17463486751180135</v>
+      </c>
+      <c r="K117" s="15">
+        <f>2*(1/(POWER(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B117*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B117*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30305357898516166</v>
+      </c>
+      <c r="L117" s="15">
+        <f>1.15*(POWER(1+0.2*B117*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B117*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B117*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B117*2/(1.11596*2.2)))))*(SQRT(B117/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>8.5704542501692002E-2</v>
+      </c>
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
@@ -23025,18 +24595,36 @@
       </c>
       <c r="E118" s="15">
         <f t="shared" si="1"/>
-        <v>0.70467197565325079</v>
-      </c>
-      <c r="F118" s="15">
+        <v>0.50767901121344428</v>
+      </c>
+      <c r="F118" s="16">
         <f t="shared" si="0"/>
-        <v>0.44926583216672267</v>
-      </c>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
+        <v>0.3226567411905743</v>
+      </c>
+      <c r="G118" s="15">
+        <f>(1/(POWER(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17652889602250943</v>
+      </c>
+      <c r="H118" s="15">
+        <f>2*(1/(POWER(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22837083703035202</v>
+      </c>
+      <c r="I118" s="15">
+        <f>2*(1/(POWER(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25572146673574708</v>
+      </c>
+      <c r="J118" s="15">
+        <f>2*(1/(POWER(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.1752309634552171</v>
+      </c>
+      <c r="K118" s="15">
+        <f>2*(1/(POWER(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B118*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B118*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30401195622765564</v>
+      </c>
+      <c r="L118" s="15">
+        <f>1.15*(POWER(1+0.2*B118*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B118*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B118*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B118*2/(1.11596*2.2)))))*(SQRT(B118/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>8.7223159833071606E-2</v>
+      </c>
       <c r="M118" s="15"/>
       <c r="N118" s="15"/>
       <c r="O118" s="15"/>
@@ -23069,18 +24657,36 @@
       </c>
       <c r="E119" s="15">
         <f t="shared" si="1"/>
-        <v>0.67236167632862809</v>
-      </c>
-      <c r="F119" s="15">
+        <v>0.48440114380864419</v>
+      </c>
+      <c r="F119" s="16">
         <f t="shared" si="0"/>
-        <v>0.44430438252407684</v>
-      </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
+        <v>0.31992170571758521</v>
+      </c>
+      <c r="G119" s="15">
+        <f>(1/(POWER(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17705438436791687</v>
+      </c>
+      <c r="H119" s="15">
+        <f>2*(1/(POWER(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22908183474356322</v>
+      </c>
+      <c r="I119" s="15">
+        <f>2*(1/(POWER(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25653087165445271</v>
+      </c>
+      <c r="J119" s="15">
+        <f>2*(1/(POWER(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17579712425950622</v>
+      </c>
+      <c r="K119" s="15">
+        <f>2*(1/(POWER(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B119*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B119*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30492827866216532</v>
+      </c>
+      <c r="L119" s="15">
+        <f>1.15*(POWER(1+0.2*B119*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B119*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B119*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B119*2/(1.11596*2.2)))))*(SQRT(B119/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>8.8695536250914517E-2</v>
+      </c>
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
@@ -23113,18 +24719,36 @@
       </c>
       <c r="E120" s="15">
         <f t="shared" si="1"/>
-        <v>0.64352774825669845</v>
-      </c>
-      <c r="F120" s="15">
+        <v>0.46362781863222202</v>
+      </c>
+      <c r="F120" s="16">
         <f t="shared" si="0"/>
-        <v>0.43971985656602758</v>
-      </c>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
+        <v>0.31737655742978094</v>
+      </c>
+      <c r="G120" s="15">
+        <f>(1/(POWER(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17755807066036419</v>
+      </c>
+      <c r="H120" s="15">
+        <f>2*(1/(POWER(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.22976217066336801</v>
+      </c>
+      <c r="I120" s="15">
+        <f>2*(1/(POWER(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25730446618392677</v>
+      </c>
+      <c r="J120" s="15">
+        <f>2*(1/(POWER(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17633593484769591</v>
+      </c>
+      <c r="K120" s="15">
+        <f>2*(1/(POWER(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B120*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B120*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30580627403618316</v>
+      </c>
+      <c r="L120" s="15">
+        <f>1.15*(POWER(1+0.2*B120*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B120*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B120*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B120*2/(1.11596*2.2)))))*(SQRT(B120/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.0125375415232079E-2</v>
+      </c>
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
@@ -23157,18 +24781,36 @@
       </c>
       <c r="E121" s="15">
         <f t="shared" si="1"/>
-        <v>0.61767356697279163</v>
-      </c>
-      <c r="F121" s="15">
+        <v>0.44500124393726675</v>
+      </c>
+      <c r="F121" s="16">
         <f t="shared" si="0"/>
-        <v>0.43546682539636822</v>
-      </c>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
+        <v>0.31499748707102726</v>
+      </c>
+      <c r="G121" s="15">
+        <f>(1/(POWER(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.1780417946210571</v>
+      </c>
+      <c r="H121" s="15">
+        <f>2*(1/(POWER(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23041440225190263</v>
+      </c>
+      <c r="I121" s="15">
+        <f>2*(1/(POWER(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25804522132466085</v>
+      </c>
+      <c r="J121" s="15">
+        <f>2*(1/(POWER(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17684963745996465</v>
+      </c>
+      <c r="K121" s="15">
+        <f>2*(1/(POWER(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B121*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B121*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30664916685425198</v>
+      </c>
+      <c r="L121" s="15">
+        <f>1.15*(POWER(1+0.2*B121*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B121*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B121*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B121*2/(1.11596*2.2)))))*(SQRT(B121/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.1515920348775162E-2</v>
+      </c>
       <c r="M121" s="15"/>
       <c r="N121" s="15"/>
       <c r="O121" s="15"/>
@@ -23201,18 +24843,36 @@
       </c>
       <c r="E122" s="15">
         <f t="shared" si="1"/>
-        <v>0.59439280336944966</v>
-      </c>
-      <c r="F122" s="15">
+        <v>0.42822868102176004</v>
+      </c>
+      <c r="F122" s="16">
         <f t="shared" si="0"/>
-        <v>0.43150717367818914</v>
-      </c>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
+        <v>0.31276459312043131</v>
+      </c>
+      <c r="G122" s="15">
+        <f>(1/(POWER(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17850715906013415</v>
+      </c>
+      <c r="H122" s="15">
+        <f>2*(1/(POWER(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23104076010485253</v>
+      </c>
+      <c r="I122" s="15">
+        <f>2*(1/(POWER(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25875572972391525</v>
+      </c>
+      <c r="J122" s="15">
+        <f>2*(1/(POWER(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17734019136772461</v>
+      </c>
+      <c r="K122" s="15">
+        <f>2*(1/(POWER(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B122*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B122*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30745976717867807</v>
+      </c>
+      <c r="L122" s="15">
+        <f>1.15*(POWER(1+0.2*B122*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B122*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B122*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B122*2/(1.11596*2.2)))))*(SQRT(B122/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.2870029515287847E-2</v>
+      </c>
       <c r="M122" s="15"/>
       <c r="N122" s="15"/>
       <c r="O122" s="15"/>
@@ -23245,18 +24905,36 @@
       </c>
       <c r="E123" s="15">
         <f t="shared" si="1"/>
-        <v>0.5733497942709469</v>
-      </c>
-      <c r="F123" s="15">
+        <v>0.41306830226229563</v>
+      </c>
+      <c r="F123" s="16">
         <f t="shared" si="0"/>
-        <v>0.42780865228134035</v>
-      </c>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
+        <v>0.3106611008659384</v>
+      </c>
+      <c r="G123" s="15">
+        <f>(1/(POWER(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17895556983360425</v>
+      </c>
+      <c r="H123" s="15">
+        <f>2*(1/(POWER(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23164320278405984</v>
+      </c>
+      <c r="I123" s="15">
+        <f>2*(1/(POWER(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.25943826898620065</v>
+      </c>
+      <c r="J123" s="15">
+        <f>2*(1/(POWER(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17780931993631555</v>
+      </c>
+      <c r="K123" s="15">
+        <f>2*(1/(POWER(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B123*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B123*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30824054043181087</v>
+      </c>
+      <c r="L123" s="15">
+        <f>1.15*(POWER(1+0.2*B123*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B123*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B123*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B123*2/(1.11596*2.2)))))*(SQRT(B123/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.4190237495002063E-2</v>
+      </c>
       <c r="M123" s="15"/>
       <c r="N123" s="15"/>
       <c r="O123" s="15"/>
@@ -23289,18 +24967,36 @@
       </c>
       <c r="E124" s="15">
         <f t="shared" si="1"/>
-        <v>0.55426482036417857</v>
-      </c>
-      <c r="F124" s="15">
+        <v>0.39931858463936826</v>
+      </c>
+      <c r="F124" s="16">
         <f t="shared" si="0"/>
-        <v>0.42434376628950321</v>
-      </c>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
+        <v>0.3086727634577261</v>
+      </c>
+      <c r="G124" s="15">
+        <f>(1/(POWER(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17938826761408172</v>
+      </c>
+      <c r="H124" s="15">
+        <f>2*(1/(POWER(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23222346046391126</v>
+      </c>
+      <c r="I124" s="15">
+        <f>2*(1/(POWER(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26009485209330457</v>
+      </c>
+      <c r="J124" s="15">
+        <f>2*(1/(POWER(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17825854814986991</v>
+      </c>
+      <c r="K124" s="15">
+        <f>2*(1/(POWER(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B124*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B124*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30899366291321012</v>
+      </c>
+      <c r="L124" s="15">
+        <f>1.15*(POWER(1+0.2*B124*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B124*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B124*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B124*2/(1.11596*2.2)))))*(SQRT(B124/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.5478803902251511E-2</v>
+      </c>
       <c r="M124" s="15"/>
       <c r="N124" s="15"/>
       <c r="O124" s="15"/>
@@ -23333,18 +25029,36 @@
       </c>
       <c r="E125" s="15">
         <f t="shared" si="1"/>
-        <v>0.53690291742613627</v>
-      </c>
-      <c r="F125" s="15">
+        <v>0.38681024881659337</v>
+      </c>
+      <c r="F125" s="16">
         <f t="shared" si="0"/>
-        <v>0.42108891024046508</v>
-      </c>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
+        <v>0.30678739694497104</v>
+      </c>
+      <c r="G125" s="15">
+        <f>(1/(POWER(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.17980635342356391</v>
+      </c>
+      <c r="H125" s="15">
+        <f>2*(1/(POWER(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23278307004437365</v>
+      </c>
+      <c r="I125" s="15">
+        <f>2*(1/(POWER(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26072726798595441</v>
+      </c>
+      <c r="J125" s="15">
+        <f>2*(1/(POWER(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17868923284806357</v>
+      </c>
+      <c r="K125" s="15">
+        <f>2*(1/(POWER(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B125*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B125*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.30972106642834718</v>
+      </c>
+      <c r="L125" s="15">
+        <f>1.15*(POWER(1+0.2*B125*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B125*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B125*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B125*2/(1.11596*2.2)))))*(SQRT(B125/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.6737753213079633E-2</v>
+      </c>
       <c r="M125" s="15"/>
       <c r="N125" s="15"/>
       <c r="O125" s="15"/>
@@ -23377,18 +25091,36 @@
       </c>
       <c r="E126" s="15">
         <f t="shared" si="1"/>
-        <v>0.52106526957581323</v>
-      </c>
-      <c r="F126" s="15">
+        <v>0.37540005843241497</v>
+      </c>
+      <c r="F126" s="16">
         <f t="shared" si="0"/>
-        <v>0.41802368815729218</v>
-      </c>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
+        <v>0.30499451532296057</v>
+      </c>
+      <c r="G126" s="15">
+        <f>(1/(POWER(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18021080935355832</v>
+      </c>
+      <c r="H126" s="15">
+        <f>2*(1/(POWER(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23332340367360821</v>
+      </c>
+      <c r="I126" s="15">
+        <f>2*(1/(POWER(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26133711454355535</v>
+      </c>
+      <c r="J126" s="15">
+        <f>2*(1/(POWER(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17910258732517861</v>
+      </c>
+      <c r="K126" s="15">
+        <f>2*(1/(POWER(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B126*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B126*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31042447451447613</v>
+      </c>
+      <c r="L126" s="15">
+        <f>1.15*(POWER(1+0.2*B126*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B126*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B126*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B126*2/(1.11596*2.2)))))*(SQRT(B126/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.796890748388383E-2</v>
+      </c>
       <c r="M126" s="15"/>
       <c r="N126" s="15"/>
       <c r="O126" s="15"/>
@@ -23421,18 +25153,36 @@
       </c>
       <c r="E127" s="15">
         <f t="shared" si="1"/>
-        <v>0.50658251513679631</v>
-      </c>
-      <c r="F127" s="15">
+        <v>0.36496599732698903</v>
+      </c>
+      <c r="F127" s="16">
         <f t="shared" si="0"/>
-        <v>0.41513037344545933</v>
-      </c>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
+        <v>0.30328504117397415</v>
+      </c>
+      <c r="G127" s="15">
+        <f>(1/(POWER(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.1806025155299624</v>
+      </c>
+      <c r="H127" s="15">
+        <f>2*(1/(POWER(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23384569212308637</v>
+      </c>
+      <c r="I127" s="15">
+        <f>2*(1/(POWER(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26192582562369904</v>
+      </c>
+      <c r="J127" s="15">
+        <f>2*(1/(POWER(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17949970151912611</v>
+      </c>
+      <c r="K127" s="15">
+        <f>2*(1/(POWER(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B127*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B127*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31110543210821656</v>
+      </c>
+      <c r="L127" s="15">
+        <f>1.15*(POWER(1+0.2*B127*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B127*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B127*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B127*2/(1.11596*2.2)))))*(SQRT(B127/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>9.9173913451532786E-2</v>
+      </c>
       <c r="M127" s="15"/>
       <c r="N127" s="15"/>
       <c r="O127" s="15"/>
@@ -23465,18 +25215,36 @@
       </c>
       <c r="E128" s="15">
         <f t="shared" si="1"/>
-        <v>0.49330948695787408</v>
-      </c>
-      <c r="F128" s="15">
+        <v>0.35540348022044921</v>
+      </c>
+      <c r="F128" s="16">
         <f t="shared" si="0"/>
-        <v>0.41239347587938291</v>
-      </c>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
+        <v>0.30165107410712877</v>
+      </c>
+      <c r="G128" s="15">
+        <f>(1/(POWER(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.1809822641172496</v>
+      </c>
+      <c r="H128" s="15">
+        <f>2*(1/(POWER(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23435104410051752</v>
+      </c>
+      <c r="I128" s="15">
+        <f>2*(1/(POWER(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26249469341187259</v>
+      </c>
+      <c r="J128" s="15">
+        <f>2*(1/(POWER(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.17988155871522352</v>
+      </c>
+      <c r="K128" s="15">
+        <f>2*(1/(POWER(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B128*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B128*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31176533004122203</v>
+      </c>
+      <c r="L128" s="15">
+        <f>1.15*(POWER(1+0.2*B128*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B128*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B128*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B128*2/(1.11596*2.2)))))*(SQRT(B128/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10035426514980927</v>
+      </c>
       <c r="M128" s="15"/>
       <c r="N128" s="15"/>
       <c r="O128" s="15"/>
@@ -23509,18 +25277,36 @@
       </c>
       <c r="E129" s="15">
         <f t="shared" si="1"/>
-        <v>0.48112104094317465</v>
-      </c>
-      <c r="F129" s="15">
+        <v>0.34662234738877279</v>
+      </c>
+      <c r="F129" s="16">
         <f t="shared" si="0"/>
-        <v>0.40979939145645689</v>
-      </c>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
+        <v>0.30008570386124622</v>
+      </c>
+      <c r="G129" s="15">
+        <f>(1/(POWER(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18135077096604083</v>
+      </c>
+      <c r="H129" s="15">
+        <f>2*(1/(POWER(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23484046232651212</v>
+      </c>
+      <c r="I129" s="15">
+        <f>2*(1/(POWER(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26304488703335532</v>
+      </c>
+      <c r="J129" s="15">
+        <f>2*(1/(POWER(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.1802490494695031</v>
+      </c>
+      <c r="K129" s="15">
+        <f>2*(1/(POWER(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B129*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B129*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31240542541822036</v>
+      </c>
+      <c r="L129" s="15">
+        <f>1.15*(POWER(1+0.2*B129*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B129*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B129*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B129*2/(1.11596*2.2)))))*(SQRT(B129/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10151132291584733</v>
+      </c>
       <c r="M129" s="15"/>
       <c r="N129" s="15"/>
       <c r="O129" s="15"/>
@@ -23553,18 +25339,36 @@
       </c>
       <c r="E130" s="15">
         <f t="shared" si="1"/>
-        <v>0.46990871887627578</v>
-      </c>
-      <c r="F130" s="15">
+        <v>0.33854446040447345</v>
+      </c>
+      <c r="F130" s="16">
         <f t="shared" si="0"/>
-        <v>0.40733611700587236</v>
-      </c>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
+        <v>0.29858285825886649</v>
+      </c>
+      <c r="G130" s="15">
+        <f>(1/(POWER(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18170868536831883</v>
+      </c>
+      <c r="H130" s="15">
+        <f>2*(1/(POWER(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.235314857010293</v>
+      </c>
+      <c r="I130" s="15">
+        <f>2*(1/(POWER(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26357746815989896</v>
+      </c>
+      <c r="J130" s="15">
+        <f>2*(1/(POWER(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18060298329443622</v>
+      </c>
+      <c r="K130" s="15">
+        <f>2*(1/(POWER(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B130*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B130*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31302685868786967</v>
+      </c>
+      <c r="L130" s="15">
+        <f>1.15*(POWER(1+0.2*B130*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B130*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B130*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B130*2/(1.11596*2.2)))))*(SQRT(B130/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10264632946602047</v>
+      </c>
       <c r="M130" s="15"/>
       <c r="N130" s="15"/>
       <c r="O130" s="15"/>
@@ -23597,18 +25401,36 @@
       </c>
       <c r="E131" s="15">
         <f t="shared" si="1"/>
-        <v>0.45957805714932576</v>
-      </c>
-      <c r="F131" s="15">
+        <v>0.33110176321780499</v>
+      </c>
+      <c r="F131" s="16">
         <f t="shared" si="0"/>
-        <v>0.40499301585912939</v>
-      </c>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
+        <v>0.29713717860210964</v>
+      </c>
+      <c r="G131" s="15">
+        <f>(1/(POWER(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18205659828065321</v>
+      </c>
+      <c r="H131" s="15">
+        <f>2*(1/(POWER(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23577505721804068</v>
+      </c>
+      <c r="I131" s="15">
+        <f>2*(1/(POWER(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26409340418056693</v>
+      </c>
+      <c r="J131" s="15">
+        <f>2*(1/(POWER(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18094409852939639</v>
+      </c>
+      <c r="K131" s="15">
+        <f>2*(1/(POWER(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B131*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B131*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31363066803566569</v>
+      </c>
+      <c r="L131" s="15">
+        <f>1.15*(POWER(1+0.2*B131*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B131*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B131*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B131*2/(1.11596*2.2)))))*(SQRT(B131/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10376042357468042</v>
+      </c>
       <c r="M131" s="15"/>
       <c r="N131" s="15"/>
       <c r="O131" s="15"/>
@@ -23641,18 +25463,36 @@
       </c>
       <c r="E132" s="15">
         <f t="shared" si="1"/>
-        <v>0.45004640010545444</v>
-      </c>
-      <c r="F132" s="15">
+        <v>0.32423470678523952</v>
+      </c>
+      <c r="F132" s="16">
         <f t="shared" si="0"/>
-        <v>0.40276062412504199</v>
-      </c>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
+        <v>0.29574391685854196</v>
+      </c>
+      <c r="G132" s="15">
+        <f>(1/(POWER(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18239504929776937</v>
+      </c>
+      <c r="H132" s="15">
+        <f>2*(1/(POWER(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23622182052088189</v>
+      </c>
+      <c r="I132" s="15">
+        <f>2*(1/(POWER(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26459357938335581</v>
+      </c>
+      <c r="J132" s="15">
+        <f>2*(1/(POWER(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18127307072742177</v>
+      </c>
+      <c r="K132" s="15">
+        <f>2*(1/(POWER(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B132*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B132*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31421780159197077</v>
+      </c>
+      <c r="L132" s="15">
+        <f>1.15*(POWER(1+0.2*B132*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B132*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B132*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B132*2/(1.11596*2.2)))))*(SQRT(B132/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10485465177814515</v>
+      </c>
       <c r="M132" s="15"/>
       <c r="N132" s="15"/>
       <c r="O132" s="15"/>
@@ -23685,18 +25525,36 @@
       </c>
       <c r="E133" s="15">
         <f t="shared" si="1"/>
-        <v>0.441241110955291</v>
-      </c>
-      <c r="F133" s="15">
+        <v>0.31789096012913137</v>
+      </c>
+      <c r="F133" s="16">
         <f t="shared" si="0"/>
-        <v>0.40063048950770863</v>
-      </c>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
+        <v>0.29439885028508095</v>
+      </c>
+      <c r="G133" s="15">
+        <f>(1/(POWER(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18272453259956134</v>
+      </c>
+      <c r="H133" s="15">
+        <f>2*(1/(POWER(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23665584122859049</v>
+      </c>
+      <c r="I133" s="15">
+        <f>2*(1/(POWER(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26507880450092103</v>
+      </c>
+      <c r="J133" s="15">
+        <f>2*(1/(POWER(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18159051982080809</v>
+      </c>
+      <c r="K133" s="15">
+        <f>2*(1/(POWER(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B133*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B133*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31478912784488466</v>
+      </c>
+      <c r="L133" s="15">
+        <f>1.15*(POWER(1+0.2*B133*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B133*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B133*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B133*2/(1.11596*2.2)))))*(SQRT(B133/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.105929978441154</v>
+      </c>
       <c r="M133" s="15"/>
       <c r="N133" s="15"/>
       <c r="O133" s="15"/>
@@ -23729,18 +25587,36 @@
       </c>
       <c r="E134" s="15">
         <f t="shared" si="1"/>
-        <v>0.43309809841409641</v>
-      </c>
-      <c r="F134" s="15">
+        <v>0.31202434885744007</v>
+      </c>
+      <c r="F134" s="16">
         <f t="shared" si="0"/>
-        <v>0.39859503639800459</v>
-      </c>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
+        <v>0.29309821010942255</v>
+      </c>
+      <c r="G134" s="15">
+        <f>(1/(POWER(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18304550204926062</v>
+      </c>
+      <c r="H134" s="15">
+        <f>2*(1/(POWER(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23707775745297943</v>
+      </c>
+      <c r="I134" s="15">
+        <f>2*(1/(POWER(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26554982490216961</v>
+      </c>
+      <c r="J134" s="15">
+        <f>2*(1/(POWER(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18189701627505375</v>
+      </c>
+      <c r="K134" s="15">
+        <f>2*(1/(POWER(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B134*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B134*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31534544456844443</v>
+      </c>
+      <c r="L134" s="15">
+        <f>1.15*(POWER(1+0.2*B134*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B134*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B134*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B134*2/(1.11596*2.2)))))*(SQRT(B134/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10698729445704158</v>
+      </c>
       <c r="M134" s="15"/>
       <c r="N134" s="15"/>
       <c r="O134" s="15"/>
@@ -23773,18 +25649,36 @@
       </c>
       <c r="E135" s="15">
         <f t="shared" si="1"/>
-        <v>0.42556059591538781</v>
-      </c>
-      <c r="F135" s="15">
+        <v>0.30659397565150143</v>
+      </c>
+      <c r="F135" s="16">
         <f t="shared" si="0"/>
-        <v>0.39664745232271514</v>
-      </c>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
+        <v>0.29183862162150342</v>
+      </c>
+      <c r="G135" s="15">
+        <f>(1/(POWER(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18335837558538379</v>
+      </c>
+      <c r="H135" s="15">
+        <f>2*(1/(POWER(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.2374881571969388</v>
+      </c>
+      <c r="I135" s="15">
+        <f>2*(1/(POWER(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26600732765608742</v>
+      </c>
+      <c r="J135" s="15">
+        <f>2*(1/(POWER(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18219308639962412</v>
+      </c>
+      <c r="K135" s="15">
+        <f>2*(1/(POWER(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B135*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B135*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31588748651537973</v>
+      </c>
+      <c r="L135" s="15">
+        <f>1.15*(POWER(1+0.2*B135*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B135*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B135*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B135*2/(1.11596*2.2)))))*(SQRT(B135/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10802742480136956</v>
+      </c>
       <c r="M135" s="15"/>
       <c r="N135" s="15"/>
       <c r="O135" s="15"/>
@@ -23817,18 +25711,36 @@
       </c>
       <c r="E136" s="15">
         <f t="shared" si="1"/>
-        <v>0.4185781442889579</v>
-      </c>
-      <c r="F136" s="15">
+        <v>0.30156348733916932</v>
+      </c>
+      <c r="F136" s="16">
         <f t="shared" si="0"/>
-        <v>0.39478159186705419</v>
-      </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
+        <v>0.29061705358562367</v>
+      </c>
+      <c r="G136" s="15">
+        <f>(1/(POWER(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18366353902272339</v>
+      </c>
+      <c r="H136" s="15">
+        <f>2*(1/(POWER(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23788758362759532</v>
+      </c>
+      <c r="I136" s="15">
+        <f>2*(1/(POWER(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26645194765093105</v>
+      </c>
+      <c r="J136" s="15">
+        <f>2*(1/(POWER(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18247921695192912</v>
+      </c>
+      <c r="K136" s="15">
+        <f>2*(1/(POWER(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B136*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B136*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31641593207589175</v>
+      </c>
+      <c r="L136" s="15">
+        <f>1.15*(POWER(1+0.2*B136*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B136*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B136*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B136*2/(1.11596*2.2)))))*(SQRT(B136/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.10905113511820093</v>
+      </c>
       <c r="M136" s="15"/>
       <c r="N136" s="15"/>
       <c r="O136" s="15"/>
@@ -23861,18 +25773,36 @@
       </c>
       <c r="E137" s="15">
         <f t="shared" si="1"/>
-        <v>0.41210573941002732</v>
-      </c>
-      <c r="F137" s="15">
+        <v>0.29690046082096216</v>
+      </c>
+      <c r="F137" s="16">
         <f t="shared" si="0"/>
-        <v>0.39299189497925086</v>
-      </c>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
+        <v>0.28943077531243078</v>
+      </c>
+      <c r="G137" s="15">
+        <f>(1/(POWER(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18396134935615102</v>
+      </c>
+      <c r="H137" s="15">
+        <f>2*(1/(POWER(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23827653966260132</v>
+      </c>
+      <c r="I137" s="15">
+        <f>2*(1/(POWER(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.266884272917915</v>
+      </c>
+      <c r="J137" s="15">
+        <f>2*(1/(POWER(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18275585914566347</v>
+      </c>
+      <c r="K137" s="15">
+        <f>2*(1/(POWER(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B137*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B137*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31693140906636413</v>
+      </c>
+      <c r="L137" s="15">
+        <f>1.15*(POWER(1+0.2*B137*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B137*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B137*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B137*2/(1.11596*2.2)))))*(SQRT(B137/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11005913748604533</v>
+      </c>
       <c r="M137" s="15"/>
       <c r="N137" s="15"/>
       <c r="O137" s="15"/>
@@ -23905,18 +25835,36 @@
       </c>
       <c r="E138" s="15">
         <f t="shared" si="1"/>
-        <v>0.40610311443010938</v>
-      </c>
-      <c r="F138" s="15">
+        <v>0.29257588595523853</v>
+      </c>
+      <c r="F138" s="16">
         <f t="shared" si="0"/>
-        <v>0.39127331718022385</v>
-      </c>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
+        <v>0.28827732006165835</v>
+      </c>
+      <c r="G138" s="15">
+        <f>(1/(POWER(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18425213764398832</v>
+      </c>
+      <c r="H138" s="15">
+        <f>2*(1/(POWER(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23865549197522781</v>
+      </c>
+      <c r="I138" s="15">
+        <f>2*(1/(POWER(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26730484928158499</v>
+      </c>
+      <c r="J138" s="15">
+        <f>2*(1/(POWER(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18302343215464892</v>
+      </c>
+      <c r="K138" s="15">
+        <f>2*(1/(POWER(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B138*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B138*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31743449978221394</v>
+      </c>
+      <c r="L138" s="15">
+        <f>1.15*(POWER(1+0.2*B138*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B138*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B138*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B138*2/(1.11596*2.2)))))*(SQRT(B138/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11105209548482327</v>
+      </c>
       <c r="M138" s="15"/>
       <c r="N138" s="15"/>
       <c r="O138" s="15"/>
@@ -23949,18 +25897,36 @@
       </c>
       <c r="E139" s="15">
         <f t="shared" si="1"/>
-        <v>0.40053413243389535</v>
-      </c>
-      <c r="F139" s="15">
+        <v>0.2885637279994997</v>
+      </c>
+      <c r="F139" s="16">
         <f t="shared" si="0"/>
-        <v>0.38962126968090782</v>
-      </c>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
+        <v>0.28715445370516413</v>
+      </c>
+      <c r="G139" s="15">
+        <f>(1/(POWER(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18453621153413977</v>
+      </c>
+      <c r="H139" s="15">
+        <f>2*(1/(POWER(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23902487450531432</v>
+      </c>
+      <c r="I139" s="15">
+        <f>2*(1/(POWER(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26771418443756401</v>
+      </c>
+      <c r="J139" s="15">
+        <f>2*(1/(POWER(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18328232618732856</v>
+      </c>
+      <c r="K139" s="15">
+        <f>2*(1/(POWER(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B139*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B139*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31792574542538515</v>
+      </c>
+      <c r="L139" s="15">
+        <f>1.15*(POWER(1+0.2*B139*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B139*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B139*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B139*2/(1.11596*2.2)))))*(SQRT(B139/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11203062866455271</v>
+      </c>
       <c r="M139" s="15"/>
       <c r="N139" s="15"/>
       <c r="O139" s="15"/>
@@ -23993,18 +25959,36 @@
       </c>
       <c r="E140" s="15">
         <f t="shared" si="1"/>
-        <v>0.39536627019760751</v>
-      </c>
-      <c r="F140" s="15">
+        <v>0.28484055568549677</v>
+      </c>
+      <c r="F140" s="16">
         <f t="shared" si="0"/>
-        <v>0.3880315677867614</v>
-      </c>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
+        <v>0.28606014778294075</v>
+      </c>
+      <c r="G140" s="15">
+        <f>(1/(POWER(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18481385748530405</v>
+      </c>
+      <c r="H140" s="15">
+        <f>2*(1/(POWER(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23938509154819643</v>
+      </c>
+      <c r="I140" s="15">
+        <f>2*(1/(POWER(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26811275154111519</v>
+      </c>
+      <c r="J140" s="15">
+        <f>2*(1/(POWER(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18353290519423529</v>
+      </c>
+      <c r="K140" s="15">
+        <f>2*(1/(POWER(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B140*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B140*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31840564999798554</v>
+      </c>
+      <c r="L140" s="15">
+        <f>1.15*(POWER(1+0.2*B140*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B140*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B140*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B140*2/(1.11596*2.2)))))*(SQRT(B140/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11299531649976875</v>
+      </c>
       <c r="M140" s="15"/>
       <c r="N140" s="15"/>
       <c r="O140" s="15"/>
@@ -24037,18 +26021,36 @@
       </c>
       <c r="E141" s="15">
         <f t="shared" si="1"/>
-        <v>0.39057017749490969</v>
-      </c>
-      <c r="F141" s="15">
+        <v>0.28138522372237101</v>
+      </c>
+      <c r="F141" s="16">
         <f t="shared" si="0"/>
-        <v>0.38650038626730454</v>
-      </c>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
+        <v>0.28499255624532904</v>
+      </c>
+      <c r="G141" s="15">
+        <f>(1/(POWER(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18508534272680041</v>
+      </c>
+      <c r="H141" s="15">
+        <f>2*(1/(POWER(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.23973652048165484</v>
+      </c>
+      <c r="I141" s="15">
+        <f>2*(1/(POWER(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26850099237600733</v>
+      </c>
+      <c r="J141" s="15">
+        <f>2*(1/(POWER(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18377550926036856</v>
+      </c>
+      <c r="K141" s="15">
+        <f>2*(1/(POWER(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B141*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B141*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31887468373822536</v>
+      </c>
+      <c r="L141" s="15">
+        <f>1.15*(POWER(1+0.2*B141*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B141*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B141*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B141*2/(1.11596*2.2)))))*(SQRT(B141/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11394670190009977</v>
+      </c>
       <c r="M141" s="15"/>
       <c r="N141" s="15"/>
       <c r="O141" s="15"/>
@@ -24081,18 +26083,36 @@
       </c>
       <c r="E142" s="15">
         <f t="shared" si="1"/>
-        <v>0.38611929935911699</v>
-      </c>
-      <c r="F142" s="15">
+        <v>0.27817860065648842</v>
+      </c>
+      <c r="F142" s="16">
         <f t="shared" si="0"/>
-        <v>0.38502422060609748</v>
-      </c>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
+        <v>0.28394999530241005</v>
+      </c>
+      <c r="G142" s="15">
+        <f>(1/(POWER(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18535091699341757</v>
+      </c>
+      <c r="H142" s="15">
+        <f>2*(1/(POWER(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.24007951418113394</v>
+      </c>
+      <c r="I142" s="15">
+        <f>2*(1/(POWER(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26887932016184934</v>
+      </c>
+      <c r="J142" s="15">
+        <f>2*(1/(POWER(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18401045672597463</v>
+      </c>
+      <c r="K142" s="15">
+        <f>2*(1/(POWER(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B142*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B142*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31933328616234991</v>
+      </c>
+      <c r="L142" s="15">
+        <f>1.15*(POWER(1+0.2*B142*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B142*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B142*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B142*2/(1.11596*2.2)))))*(SQRT(B142/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11488529433631696</v>
+      </c>
       <c r="M142" s="15"/>
       <c r="N142" s="15"/>
       <c r="O142" s="15"/>
@@ -24125,18 +26145,36 @@
       </c>
       <c r="E143" s="15">
         <f t="shared" si="1"/>
-        <v>0.38198955105300336</v>
-      </c>
-      <c r="F143" s="15">
+        <v>0.27520333470432029</v>
+      </c>
+      <c r="F143" s="16">
         <f t="shared" si="0"/>
-        <v>0.38359985323689455</v>
-      </c>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
+        <v>0.2829309259037745</v>
+      </c>
+      <c r="G143" s="15">
+        <f>(1/(POWER(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18561081406587429</v>
+      </c>
+      <c r="H143" s="15">
+        <f>2*(1/(POWER(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.24041440316546844</v>
+      </c>
+      <c r="I143" s="15">
+        <f>2*(1/(POWER(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26924812204880455</v>
+      </c>
+      <c r="J143" s="15">
+        <f>2*(1/(POWER(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18423804607233277</v>
+      </c>
+      <c r="K143" s="15">
+        <f>2*(1/(POWER(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B143*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B143*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.31978186876608994</v>
+      </c>
+      <c r="L143" s="15">
+        <f>1.15*(POWER(1+0.2*B143*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B143*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B143*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B143*2/(1.11596*2.2)))))*(SQRT(B143/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11581157263203155</v>
+      </c>
       <c r="M143" s="15"/>
       <c r="N143" s="15"/>
       <c r="O143" s="15"/>
@@ -24169,18 +26207,36 @@
       </c>
       <c r="E144" s="15">
         <f t="shared" si="1"/>
-        <v>0.37815903736090889</v>
-      </c>
-      <c r="F144" s="15">
+        <v>0.27244365151720434</v>
+      </c>
+      <c r="F144" s="16">
         <f t="shared" si="0"/>
-        <v>0.38222432402503614</v>
-      </c>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
+        <v>0.28193393845413245</v>
+      </c>
+      <c r="G144" s="15">
+        <f>(1/(POWER(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18586525314270411</v>
+      </c>
+      <c r="H144" s="15">
+        <f>2*(1/(POWER(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.2407414975087791</v>
+      </c>
+      <c r="I144" s="15">
+        <f>2*(1/(POWER(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26960776134098152</v>
+      </c>
+      <c r="J144" s="15">
+        <f>2*(1/(POWER(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18445855760346941</v>
+      </c>
+      <c r="K144" s="15">
+        <f>2*(1/(POWER(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B144*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B144*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.32022081743080444</v>
+      </c>
+      <c r="L144" s="15">
+        <f>1.15*(POWER(1+0.2*B144*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B144*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B144*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B144*2/(1.11596*2.2)))))*(SQRT(B144/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11672598746366537</v>
+      </c>
       <c r="M144" s="15"/>
       <c r="N144" s="15"/>
       <c r="O144" s="15"/>
@@ -24213,18 +26269,36 @@
       </c>
       <c r="E145" s="15">
         <f t="shared" si="1"/>
-        <v>0.37460780930856574</v>
-      </c>
-      <c r="F145" s="15">
+        <v>0.26988517891080377</v>
+      </c>
+      <c r="F145" s="16">
         <f t="shared" si="0"/>
-        <v>0.38089490437735168</v>
-      </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
+        <v>0.28095773943680097</v>
+      </c>
+      <c r="G145" s="15">
+        <f>(1/(POWER(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18611444006544214</v>
+      </c>
+      <c r="H145" s="15">
+        <f>2*(1/(POWER(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.24106108854878183</v>
+      </c>
+      <c r="I145" s="15">
+        <f>2*(1/(POWER(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.26995857948354246</v>
+      </c>
+      <c r="J145" s="15">
+        <f>2*(1/(POWER(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18467225495004866</v>
+      </c>
+      <c r="K145" s="15">
+        <f>2*(1/(POWER(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B145*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B145*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.32065049457260464</v>
+      </c>
+      <c r="L145" s="15">
+        <f>1.15*(POWER(1+0.2*B145*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B145*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B145*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B145*2/(1.11596*2.2)))))*(SQRT(B145/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11762896360504851</v>
+      </c>
       <c r="M145" s="15"/>
       <c r="N145" s="15"/>
       <c r="O145" s="15"/>
@@ -24257,18 +26331,36 @@
       </c>
       <c r="E146" s="15">
         <f t="shared" si="1"/>
-        <v>0.37131765261512045</v>
-      </c>
-      <c r="F146" s="15">
+        <v>0.26751479445594145</v>
+      </c>
+      <c r="F146" s="16">
         <f t="shared" si="0"/>
-        <v>0.37960907446496084</v>
-      </c>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
+        <v>0.28000113967124368</v>
+      </c>
+      <c r="G146" s="15">
+        <f>(1/(POWER(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18635856841572329</v>
+      </c>
+      <c r="H146" s="15">
+        <f>2*(1/(POWER(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.24137345041724534</v>
+      </c>
+      <c r="I146" s="15">
+        <f>2*(1/(POWER(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.2703008978433491</v>
+      </c>
+      <c r="J146" s="15">
+        <f>2*(1/(POWER(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18487938641779736</v>
+      </c>
+      <c r="K146" s="15">
+        <f>2*(1/(POWER(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B146*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B146*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.32107124106703344</v>
+      </c>
+      <c r="L146" s="15">
+        <f>1.15*(POWER(1+0.2*B146*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B146*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B146*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B146*2/(1.11596*2.2)))))*(SQRT(B146/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11852090194776758</v>
+      </c>
       <c r="M146" s="15"/>
       <c r="N146" s="15"/>
       <c r="O146" s="15"/>
@@ -24301,18 +26393,36 @@
       </c>
       <c r="E147" s="15">
         <f t="shared" si="1"/>
-        <v>0.36827190315128178</v>
-      </c>
-      <c r="F147" s="15">
+        <v>0.26532049252592343</v>
+      </c>
+      <c r="F147" s="16">
         <f t="shared" si="0"/>
-        <v>0.37836450312609932</v>
-      </c>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
+        <v>0.27906304397507375</v>
+      </c>
+      <c r="G147" s="15">
+        <f>(1/(POWER(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18659782050019147</v>
+      </c>
+      <c r="H147" s="15">
+        <f>2*(1/(POWER(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.2416788414146013</v>
+      </c>
+      <c r="I147" s="15">
+        <f>2*(1/(POWER(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.2706350193086442</v>
+      </c>
+      <c r="J147" s="15">
+        <f>2*(1/(POWER(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18508018619958583</v>
+      </c>
+      <c r="K147" s="15">
+        <f>2*(1/(POWER(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B147*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B147*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.3214833779771411</v>
+      </c>
+      <c r="L147" s="15">
+        <f>1.15*(POWER(1+0.2*B147*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B147*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B147*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B147*2/(1.11596*2.2)))))*(SQRT(B147/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.11940218132400612</v>
+      </c>
       <c r="M147" s="15"/>
       <c r="N147" s="15"/>
       <c r="O147" s="15"/>
@@ -24345,18 +26455,36 @@
       </c>
       <c r="E148" s="15">
         <f t="shared" si="1"/>
-        <v>0.36545528546519923</v>
-      </c>
-      <c r="F148" s="15">
+        <v>0.26329126796294705</v>
+      </c>
+      <c r="F148" s="16">
         <f t="shared" si="0"/>
-        <v>0.37715903008409452</v>
-      </c>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
+        <v>0.27814244203727151</v>
+      </c>
+      <c r="G148" s="15">
+        <f>(1/(POWER(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18683236823684457</v>
+      </c>
+      <c r="H148" s="15">
+        <f>2*(1/(POWER(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.24197750524756514</v>
+      </c>
+      <c r="I148" s="15">
+        <f>2*(1/(POWER(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.27096122972963993</v>
+      </c>
+      <c r="J148" s="15">
+        <f>2*(1/(POWER(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18527487546757798</v>
+      </c>
+      <c r="K148" s="15">
+        <f>2*(1/(POWER(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B148*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B148*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.32188720810880744</v>
+      </c>
+      <c r="L148" s="15">
+        <f>1.15*(POWER(1+0.2*B148*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B148*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B148*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B148*2/(1.11596*2.2)))))*(SQRT(B148/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.12027316015493424</v>
+      </c>
       <c r="M148" s="15"/>
       <c r="N148" s="15"/>
       <c r="O148" s="15"/>
@@ -24389,18 +26517,36 @@
       </c>
       <c r="E149" s="15">
         <f t="shared" si="1"/>
-        <v>0.36285377108068362</v>
-      </c>
-      <c r="F149" s="15">
+        <v>0.26141701398943817</v>
+      </c>
+      <c r="F149" s="16">
         <f t="shared" si="0"/>
-        <v>0.37599065017176075</v>
-      </c>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
+        <v>0.27723840033931318</v>
+      </c>
+      <c r="G149" s="15">
+        <f>(1/(POWER(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18706237395453787</v>
+      </c>
+      <c r="H149" s="15">
+        <f>2*(1/(POWER(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.24226967214600847</v>
+      </c>
+      <c r="I149" s="15">
+        <f>2*(1/(POWER(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.271279799218832</v>
+      </c>
+      <c r="J149" s="15">
+        <f>2*(1/(POWER(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.185463663359582</v>
+      </c>
+      <c r="K149" s="15">
+        <f>2*(1/(POWER(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B149*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B149*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.32228301741383952</v>
+      </c>
+      <c r="L149" s="15">
+        <f>1.15*(POWER(1+0.2*B149*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B149*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B149*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B149*2/(1.11596*2.2)))))*(SQRT(B149/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.12113417794459257</v>
+      </c>
       <c r="M149" s="15"/>
       <c r="N149" s="15"/>
       <c r="O149" s="15"/>
@@ -24433,18 +26579,36 @@
       </c>
       <c r="E150" s="15">
         <f t="shared" si="1"/>
-        <v>0.36045445379964097</v>
-      </c>
-      <c r="F150" s="15">
+        <v>0.25968843237002892</v>
+      </c>
+      <c r="F150" s="16">
         <f t="shared" si="0"/>
-        <v>0.37485749930003359</v>
-      </c>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
+        <v>0.2763500549857234</v>
+      </c>
+      <c r="G150" s="15">
+        <f>(1/(POWER(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)),3.5)*(1-0.57*SQRT(SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6))-1.07))/(1.5+SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$44*'Drag Polar'!$E$44*'Drag Polar'!$D$6)))))))*(0.032+2*(SQRT('Drag Polar'!$D$44/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$44))))</f>
+        <v>0.18728799111576031</v>
+      </c>
+      <c r="H150" s="15">
+        <f>2*(1/(POWER(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)),3.5)*(1-0.57*SQRT(SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42))-1.07))/(1.5+SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$42*'Drag Polar'!$E$42)))))))*(2*(SQRT('Drag Polar'!$D$42/(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$E$42))))</f>
+        <v>0.24255555987309566</v>
+      </c>
+      <c r="I150" s="15">
+        <f>2*(1/(POWER(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)),3.5)*(1-0.57*SQRT(SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41))-1.07))/(1.5+SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$41*'Drag Polar'!$E$41)))))))*(0.024+2*(SQRT('Drag Polar'!$D$41/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$41))))</f>
+        <v>0.27159098332730303</v>
+      </c>
+      <c r="J150" s="15">
+        <f>2*(1/(POWER(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)),3.5)*(1-0.57*SQRT(SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39))-1.07))/(1.5+SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$39*'Drag Polar'!$E$39)))))))*(0.012+2*(SQRT('Drag Polar'!$D$39/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$39))))</f>
+        <v>0.18564674787181751</v>
+      </c>
+      <c r="K150" s="15">
+        <f>2*(1/(POWER(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)),3.5)*(1-0.57*SQRT(SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))/SQRT(1.4*287*288.15))-(3*(1+0.2*B150*2/(1.4*287*288.15*1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43))-1.07))/(1.5+SQRT(B150*2/(1.225*SQRT(3.1415*'Drag Polar'!$D$6*'Drag Polar'!$D$43*'Drag Polar'!$E$43)))))))*(0.021+2*(SQRT('Drag Polar'!$D$43/(3.14*'Drag Polar'!$D$6*'Drag Polar'!$E$43))))</f>
+        <v>0.32267107625856334</v>
+      </c>
+      <c r="L150" s="15">
+        <f>1.15*(POWER(1+0.2*B150*2/(1.4*287*298*1.11596*2.2),3.5)*(1-0.57*SQRT(SQRT(B150*2/(1.11596*2.2))/SQRT(1.4*287*298))-(3*(1+0.2*B150*2/(1.4*287*298*1.11596*2.2)-1.07))/(1.5+SQRT(B150*2/(1.11596*2.2)))))*(SQRT(B150/(1720*1.11596*9.8065*3.1415*0.85*'Drag Polar'!$E$42*'Drag Polar'!$D$6))+11*4/1720)</f>
+        <v>0.12198555663657816</v>
+      </c>
       <c r="M150" s="15"/>
       <c r="N150" s="15"/>
       <c r="O150" s="15"/>
@@ -25825,8 +27989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A8421A-332B-4464-B94C-1DD572F0C6C5}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A18" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25866,7 +28030,9 @@
       <c r="A3" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>479</v>
       </c>
@@ -25878,7 +28044,9 @@
       <c r="A4" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="33" t="s">
+        <v>680</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -25906,7 +28074,9 @@
       <c r="A7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.35</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -25918,7 +28088,9 @@
       <c r="A8" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="33" t="s">
+        <v>681</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -25946,7 +28118,7 @@
       <c r="A11" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="2">
         <f>'Drag Polar'!D6</f>
         <v>9.5</v>
       </c>
@@ -25961,7 +28133,9 @@
       <c r="A12" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>25.95</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
@@ -25973,7 +28147,9 @@
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>4.05</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
@@ -25985,7 +28161,9 @@
       <c r="A14" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>1.4175</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
@@ -25994,11 +28172,11 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="130" t="s">
         <v>408</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -26022,11 +28200,11 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -26035,7 +28213,9 @@
       <c r="A19" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>2.8</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
@@ -26065,7 +28245,9 @@
       <c r="A22" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>5.9500000000000004E-3</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
@@ -26077,7 +28259,9 @@
       <c r="A23" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
@@ -26089,7 +28273,9 @@
       <c r="A24" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>1.9</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
@@ -26101,7 +28287,9 @@
       <c r="A25" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>0.11</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
@@ -26113,7 +28301,9 @@
       <c r="A26" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>0.22</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
@@ -26125,7 +28315,9 @@
       <c r="A27" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>0.17699999999999999</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
@@ -26137,7 +28329,9 @@
       <c r="A28" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>0.11</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
@@ -26149,7 +28343,9 @@
       <c r="A29" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
@@ -26161,7 +28357,9 @@
       <c r="A30" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
@@ -26173,27 +28371,29 @@
       <c r="A31" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="33" t="s">
+        <v>686</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="130" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="127"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="127" t="s">
+      <c r="A33" s="130" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="127"/>
+      <c r="B33" s="130"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -26221,7 +28421,9 @@
       <c r="A36" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>3.5</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>479</v>
       </c>
@@ -26233,7 +28435,9 @@
       <c r="A37" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="33" t="s">
+        <v>687</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -26243,7 +28447,9 @@
       <c r="A38" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="33" t="s">
+        <v>688</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -26253,7 +28459,9 @@
       <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <v>5.5</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>479</v>
       </c>
@@ -26280,21 +28488,21 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="130" t="s">
         <v>515</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="130" t="s">
         <v>517</v>
       </c>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -26351,6 +28559,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003B35A4F73E5FB46B06133D49831EB02" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="963094af03acbe8bbdbdb5b78098b6c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57737f91-50a7-4bcd-be1e-7a40d09a4546" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97d626fed2f10e20cb731189a2ebb807" ns2:_="">
     <xsd:import namespace="57737f91-50a7-4bcd-be1e-7a40d09a4546"/>
@@ -26494,16 +28711,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4C5F6B-9CE6-4980-93EC-E038CC0A98DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15DCABB9-91A6-47D0-BC99-7AE8850BD32A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26519,12 +28735,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4C5F6B-9CE6-4980-93EC-E038CC0A98DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/5708745_AE1222II_ACD_2024.xlsx
+++ b/5708745_AE1222II_ACD_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace\ADSEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40E326-42C7-4FCC-A12C-052059B01C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343BB958-BDC5-46F2-B323-69616BEF964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="12" xr2:uid="{B0EDAE5C-5DAE-4AFD-85A9-74F2333B50BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <sheet name="Matching Diagram" sheetId="3" r:id="rId8"/>
     <sheet name="Wing" sheetId="11" r:id="rId9"/>
     <sheet name="Propulsion System" sheetId="14" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
+    <sheet name="Propulsion System 2" sheetId="16" r:id="rId11"/>
     <sheet name="CG and Loading Diagram" sheetId="15" r:id="rId12"/>
     <sheet name="Landing Gear" sheetId="13" r:id="rId13"/>
-    <sheet name="Tail" sheetId="12" r:id="rId14"/>
-    <sheet name="Design Log Book" sheetId="10" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId16"/>
+    <sheet name="Landing Gear 2" sheetId="17" r:id="rId14"/>
+    <sheet name="Tail" sheetId="12" r:id="rId15"/>
+    <sheet name="Design Log Book" sheetId="10" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="694">
   <si>
     <t>AE1222-II</t>
   </si>
@@ -3339,9 +3340,6 @@
     <t>No, as there exists a range of possible values of t/c to choose from</t>
   </si>
   <si>
-    <t>Personally, I would</t>
-  </si>
-  <si>
     <t>For the plane, 3.5 degrees just seems to small to comply with ground clearance values.</t>
   </si>
   <si>
@@ -3352,6 +3350,15 @@
   </si>
   <si>
     <t>Changed location of aft type I emergency exit</t>
+  </si>
+  <si>
+    <t>Compute static load per nose gear wheel</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>36 x 10,75 - 16,5</t>
   </si>
 </sst>
 </file>
@@ -8671,24 +8678,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('CG and Loading Diagram'!$C$26,'CG and Loading Diagram'!$C$28,'CG and Loading Diagram'!$C$29,'CG and Loading Diagram'!$C$30,'CG and Loading Diagram'!$C$26)</c:f>
+              <c:f>('CG and Loading Diagram'!$C$25,'CG and Loading Diagram'!$C$28,'CG and Loading Diagram'!$C$29,'CG and Loading Diagram'!$C$30,'CG and Loading Diagram'!$C$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.1</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.44675615212528</c:v>
+                  <c:v>13.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>13.690523415977962</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8749,10 +8756,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12.88</c:v>
+                  <c:v>12.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.68</c:v>
+                  <c:v>15.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8791,6 +8798,7 @@
         <c:axId val="1675774688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11918,7 +11926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93947346-1B64-4777-8D18-B7A8C5A631AB}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="121" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="121" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -12313,7 +12321,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="112" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E25" s="112"/>
       <c r="F25" s="112"/>
@@ -12663,7 +12671,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12721,8 +12729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B73564-745F-4A75-9D39-D4C6FC2C711E}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12778,7 +12786,7 @@
         <v>322</v>
       </c>
       <c r="B3" s="70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>483</v>
@@ -12991,14 +12999,14 @@
         <v>313</v>
       </c>
       <c r="B12" s="70">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="C12" s="70">
         <v>10.6</v>
       </c>
       <c r="D12" s="70">
-        <f t="shared" ref="D12:D15" si="0">C12*B12</f>
-        <v>1.272</v>
+        <f>C12*B12</f>
+        <v>1.1659999999999999</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
@@ -13016,14 +13024,14 @@
         <v>314</v>
       </c>
       <c r="B13" s="70">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C13" s="70">
         <v>23.25</v>
       </c>
       <c r="D13" s="70">
-        <f t="shared" si="0"/>
-        <v>0.23250000000000001</v>
+        <f t="shared" ref="D12:D15" si="0">C13*B13</f>
+        <v>0.25574999999999998</v>
       </c>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
@@ -13041,14 +13049,14 @@
         <v>315</v>
       </c>
       <c r="B14" s="70">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C14" s="70">
         <v>23.25</v>
       </c>
       <c r="D14" s="70">
         <f t="shared" si="0"/>
-        <v>1.6275000000000002</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -13066,14 +13074,14 @@
         <v>316</v>
       </c>
       <c r="B15" s="82">
-        <v>0.22500000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C15" s="82">
         <v>10.6</v>
       </c>
       <c r="D15" s="70">
         <f t="shared" si="0"/>
-        <v>2.3849999999999998</v>
+        <v>2.1729999999999996</v>
       </c>
       <c r="E15" s="83"/>
       <c r="F15" s="83"/>
@@ -13092,11 +13100,11 @@
       </c>
       <c r="B16" s="80">
         <f>SUM(B11:B15)</f>
-        <v>0.44500000000000001</v>
+        <v>0.41800000000000004</v>
       </c>
       <c r="C16" s="80">
         <f>SUM(D11:D15)/B16</f>
-        <v>13.469662921348315</v>
+        <v>13.745813397129183</v>
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="80">
@@ -13156,7 +13164,7 @@
         <v>547</v>
       </c>
       <c r="C19" s="72">
-        <v>12.88</v>
+        <v>12.81</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
@@ -13179,7 +13187,7 @@
       </c>
       <c r="C20" s="6">
         <f>C19+F5</f>
-        <v>15.68</v>
+        <v>15.61</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>24</v>
@@ -13329,11 +13337,11 @@
         <v>0.106</v>
       </c>
       <c r="C27" s="79">
-        <v>13.6</v>
+        <v>14.22</v>
       </c>
       <c r="D27" s="71">
         <f t="shared" si="1"/>
-        <v>1.4416</v>
+        <v>1.50732</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="2"/>
@@ -13355,8 +13363,7 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="C28" s="77">
-        <f>(D25+D26)/(B25+B26)</f>
-        <v>13.44675615212528</v>
+        <v>13.44</v>
       </c>
       <c r="D28" s="78"/>
       <c r="E28" s="6"/>
@@ -13403,7 +13410,7 @@
       </c>
       <c r="C30" s="71">
         <f>(D25+D27)/(B25+B27)</f>
-        <v>13.6</v>
+        <v>13.690523415977962</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="6"/>
@@ -13457,7 +13464,7 @@
       </c>
       <c r="B33" s="6">
         <f>MIN(C28:C30)</f>
-        <v>13.44675615212528</v>
+        <v>13.44</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -13480,7 +13487,7 @@
       </c>
       <c r="B34" s="6">
         <f>MAX(C28:C30)</f>
-        <v>13.6</v>
+        <v>13.690523415977962</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>24</v>
@@ -13667,8 +13674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1699951C-AAFB-40D4-87BC-671CF3964740}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13692,7 +13699,9 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
@@ -13704,7 +13713,9 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
@@ -13717,7 +13728,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="15">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -13848,7 +13859,9 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0.3</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
@@ -13938,7 +13951,9 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
@@ -14016,7 +14031,9 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
       </c>
@@ -14056,7 +14073,9 @@
       </c>
       <c r="B37" s="103"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
@@ -14179,10 +14198,117 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295BE94C-C6DB-411A-B5F0-F7C1318605C5}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="14"/>
+      <c r="F1">
+        <v>737.2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14"/>
+      <c r="F2">
+        <v>6815</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="14"/>
+      <c r="F3">
+        <v>593</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="91"/>
+      <c r="F4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="40"/>
+      <c r="F5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="14"/>
+      <c r="F6">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14"/>
+      <c r="F7">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC14F55-5905-45DE-B739-360C648C3C37}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -14627,7 +14753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BBF2CA-544D-4E1E-81C5-407ABA6ABB5E}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -14713,10 +14839,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>690</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -14728,7 +14854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB433A1-A272-440A-9F3E-E3D2C023A1A7}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A6:K36"/>
@@ -19087,7 +19213,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19811,7 +19937,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:CA191"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
@@ -27989,8 +28115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A8421A-332B-4464-B94C-1DD572F0C6C5}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A16" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28436,7 +28562,7 @@
         <v>289</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -28448,7 +28574,7 @@
         <v>290</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -28460,7 +28586,7 @@
         <v>291</v>
       </c>
       <c r="B39" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>479</v>
